--- a/Processed/Cluster1.xlsx
+++ b/Processed/Cluster1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ICDI_NEC\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1F90B975-14DE-44BA-BBAE-277024861ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5DBCC-F885-42E8-86BD-0B971DB514BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alldata_from_python" sheetId="1" r:id="rId1"/>
     <sheet name="average" sheetId="2" r:id="rId2"/>
     <sheet name="report" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="44">
   <si>
     <t>Product</t>
   </si>
@@ -152,11 +163,14 @@
   <si>
     <t>X Factor เฉลี่ย 5 ปีย้อนหลัง : Cluster 1</t>
   </si>
+  <si>
+    <t>Price:Baht/Kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -855,15 +869,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -889,6 +894,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -4704,7 +4718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -5870,10 +5884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5889,565 +5905,565 @@
   <sheetData>
     <row r="1" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>10.71</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>393747.83</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <v>3542.27</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>549.52</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>11.11</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>200721.8</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <v>1765.69</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>543.32000000000005</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>9.43</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>10.25</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>185130.19</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>1706.39</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>549.79999999999995</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>9.1</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <v>8.15</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>1502032.96</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="13">
         <v>12214.2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="13">
         <v>625.66</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>6.24</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>7.91</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>444469.12</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>3512.03</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <v>656.4</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <v>7.83</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>7.53</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>214560.55</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="7">
         <v>1612.63</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="7">
         <v>687.83</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <v>6.7</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>8.26</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>188590.48</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <v>1562.64</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="7">
         <v>578.03</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <v>4.87</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>7.51</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>158211.6</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>1187.3800000000001</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="7">
         <v>618.13</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>5.79</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>8.33</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <v>130477.34</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>1075.43</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="7">
         <v>571.32000000000005</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>6.75</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="16">
         <v>12.56</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="16">
         <v>71647.62</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="16">
         <v>875.16</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="16">
         <v>570.79999999999995</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="17">
         <v>7.66</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>8.15</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>97581.19</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="19">
         <v>787.14</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="19">
         <v>614.84</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="20">
         <v>7.7</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>5.92</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>3399215.41</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <v>20029.93</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>848.81</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <v>11.65</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>5.84</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="7">
         <v>615746.43999999994</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="7">
         <v>3580.49</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="7">
         <v>834.07</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <v>19.59</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <v>5.9</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="7">
         <v>438403.22</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <v>2562.9299999999998</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <v>796.96</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="8">
         <v>17.989999999999998</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>6.15</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="7">
         <v>336483.9</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="7">
         <v>2044.71</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="7">
         <v>714.12</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <v>15.06</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <v>6.63</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="7">
         <v>302179.42</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="7">
         <v>2016.87</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="7">
         <v>1041.3900000000001</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <v>21.76</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>5.16</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="7">
         <v>285392.83</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="7">
         <v>1423.51</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="7">
         <v>893.42</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>10.35</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>6.06</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="7">
         <v>217350.98</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="7">
         <v>1314.67</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="7">
         <v>838.37</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>7.94</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>6.25</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="7">
         <v>198753.08</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="7">
         <v>1248.26</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="7">
         <v>854.8</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="8">
         <v>8.52</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="16">
         <v>5.7</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="16">
         <v>174319.01</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="16">
         <v>991.62</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="16">
         <v>839.39</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="17">
         <v>12.44</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="16">
         <v>5.76</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>163518.19</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="16">
         <v>943.19</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <v>914.04</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="17">
         <v>8.65</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="16">
         <v>5.15</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="16">
         <v>164685.4</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="16">
         <v>827.65</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="16">
         <v>875.6</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="17">
         <v>8.0299999999999994</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="19">
         <v>5.36</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>141289.22</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="19">
         <v>755.21</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="19">
         <v>869.68</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="20">
         <v>12.55</v>
       </c>
     </row>

--- a/Processed/Cluster1.xlsx
+++ b/Processed/Cluster1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ICDI_NEC\Processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5DBCC-F885-42E8-86BD-0B971DB514BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F756E27-F667-4F21-A1B3-4433B1DA2D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alldata_from_python" sheetId="1" r:id="rId1"/>
     <sheet name="average" sheetId="2" r:id="rId2"/>
-    <sheet name="report" sheetId="3" r:id="rId3"/>
+    <sheet name="sort" sheetId="4" r:id="rId3"/>
+    <sheet name="report" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="51">
   <si>
     <t>Product</t>
   </si>
@@ -166,11 +167,35 @@
   <si>
     <t>Price:Baht/Kg</t>
   </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>g1</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>avggrowth</t>
+  </si>
+  <si>
+    <t>Avg/Growth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -633,37 +658,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -816,8 +810,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -860,8 +891,10 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,44 +902,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="14" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="14" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="17" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="14" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="33" borderId="17" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="33" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="17" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="34" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -934,6 +981,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -946,6 +994,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1260,16 +1309,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.796875" customWidth="1"/>
+    <col min="27" max="27" width="11.5" customWidth="1"/>
+    <col min="28" max="28" width="10.69921875" customWidth="1"/>
+    <col min="29" max="29" width="12.3984375" customWidth="1"/>
+    <col min="30" max="30" width="11.3984375" customWidth="1"/>
+    <col min="31" max="31" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +1407,23 @@
       <c r="AA1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1435,8 +1506,28 @@
       <c r="AA2">
         <v>7.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="40">
+        <f>(J2-E2)/E2</f>
+        <v>-0.15547873623281622</v>
+      </c>
+      <c r="AC2" s="40">
+        <f>(O2-J2)/J2</f>
+        <v>0.53017050704146507</v>
+      </c>
+      <c r="AD2" s="40">
+        <f>(T2-O2)/O2</f>
+        <v>-0.18667193626711023</v>
+      </c>
+      <c r="AE2" s="40">
+        <f>(Y2-T2)/T2</f>
+        <v>-0.22609448726572468</v>
+      </c>
+      <c r="AF2">
+        <f>AVERAGE(AB2:AE2)</f>
+        <v>-9.5186631810465147E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1519,8 +1610,28 @@
       <c r="AA3">
         <v>8.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" s="40">
+        <f t="shared" ref="AB3:AB41" si="1">(J3-E3)/E3</f>
+        <v>-0.28513408130975498</v>
+      </c>
+      <c r="AC3" s="40">
+        <f t="shared" ref="AC3:AC41" si="2">(O3-J3)/J3</f>
+        <v>0.56492925063687027</v>
+      </c>
+      <c r="AD3" s="40">
+        <f t="shared" ref="AD3:AD41" si="3">(T3-O3)/O3</f>
+        <v>-9.5064449449792227E-2</v>
+      </c>
+      <c r="AE3" s="40">
+        <f t="shared" ref="AE3:AE41" si="4">(Y3-T3)/T3</f>
+        <v>-0.51835337915097113</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF41" si="5">AVERAGE(AB3:AE3)</f>
+        <v>-8.3405664818412023E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1603,8 +1714,28 @@
       <c r="AA4">
         <v>5.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.27437530622243994</v>
+      </c>
+      <c r="AC4" s="40">
+        <f t="shared" si="2"/>
+        <v>2.0112536574386675</v>
+      </c>
+      <c r="AD4" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.16675386800209274</v>
+      </c>
+      <c r="AE4" s="40">
+        <f t="shared" si="4"/>
+        <v>-0.16908323645496956</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="5"/>
+        <v>0.35026031168979133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1687,8 +1818,28 @@
       <c r="AA5">
         <v>6.55</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="40">
+        <f t="shared" si="1"/>
+        <v>-4.5026333738467633E-3</v>
+      </c>
+      <c r="AC5" s="40">
+        <f t="shared" si="2"/>
+        <v>0.46807370736506981</v>
+      </c>
+      <c r="AD5" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.26750906200764257</v>
+      </c>
+      <c r="AE5" s="40">
+        <f t="shared" si="4"/>
+        <v>8.4681309917315775E-2</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="5"/>
+        <v>7.0185830475224059E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1771,8 +1922,28 @@
       <c r="AA6">
         <v>6.23</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="40">
+        <f t="shared" si="1"/>
+        <v>-2.4344529245345106E-2</v>
+      </c>
+      <c r="AC6" s="40">
+        <f t="shared" si="2"/>
+        <v>-5.4698609733133527E-3</v>
+      </c>
+      <c r="AD6" s="40">
+        <f t="shared" si="3"/>
+        <v>7.0082978056160691E-2</v>
+      </c>
+      <c r="AE6" s="40">
+        <f t="shared" si="4"/>
+        <v>-1.4442589241808371E-7</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="5"/>
+        <v>1.0067110852902452E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1855,8 +2026,28 @@
       <c r="AA7">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="40">
+        <f t="shared" si="1"/>
+        <v>-8.4210526315789458E-2</v>
+      </c>
+      <c r="AC7" s="40">
+        <f t="shared" si="2"/>
+        <v>-1.4778325123152686E-2</v>
+      </c>
+      <c r="AD7" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.82166666666666666</v>
+      </c>
+      <c r="AE7" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="5"/>
+        <v>-0.23016387952640222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +2130,28 @@
       <c r="AA8">
         <v>8.2899999999999991</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.16570717702212823</v>
+      </c>
+      <c r="AC8" s="40">
+        <f t="shared" si="2"/>
+        <v>0.22604350905163376</v>
+      </c>
+      <c r="AD8" s="40">
+        <f t="shared" si="3"/>
+        <v>0.15188510291219301</v>
+      </c>
+      <c r="AE8" s="40">
+        <f t="shared" si="4"/>
+        <v>1.9667677991192859E-7</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="5"/>
+        <v>5.3055407904619614E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2023,8 +2234,28 @@
       <c r="AA9">
         <v>6.82</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.23855310619094322</v>
+      </c>
+      <c r="AC9" s="40">
+        <f t="shared" si="2"/>
+        <v>1.2092630393468053E-2</v>
+      </c>
+      <c r="AD9" s="40">
+        <f t="shared" si="3"/>
+        <v>0.16100091801819344</v>
+      </c>
+      <c r="AE9" s="40">
+        <f t="shared" si="4"/>
+        <v>6.0261893634834766E-8</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="5"/>
+        <v>-1.6364874379347024E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2107,8 +2338,28 @@
       <c r="AA10">
         <v>2.62</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.13989099403062549</v>
+      </c>
+      <c r="AC10" s="40">
+        <f t="shared" si="2"/>
+        <v>-8.3383625025145902E-2</v>
+      </c>
+      <c r="AD10" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.49006913200921759</v>
+      </c>
+      <c r="AE10" s="40">
+        <f t="shared" si="4"/>
+        <v>-5.2184204863403097E-5</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="5"/>
+        <v>-0.17834898381746309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2191,8 +2442,28 @@
       <c r="AA11">
         <v>13.88</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11" s="40">
+        <f t="shared" si="1"/>
+        <v>2.0331469648562304</v>
+      </c>
+      <c r="AC11" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.41237656352863727</v>
+      </c>
+      <c r="AD11" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.16468742997983421</v>
+      </c>
+      <c r="AE11" s="40">
+        <f t="shared" si="4"/>
+        <v>-9.3481759656591736E-5</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="5"/>
+        <v>0.36399737239702562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2275,8 +2546,28 @@
       <c r="AA12">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12" s="40">
+        <f t="shared" si="1"/>
+        <v>1.1150089325073664</v>
+      </c>
+      <c r="AC12" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.67508419355192584</v>
+      </c>
+      <c r="AD12" s="40">
+        <f t="shared" si="3"/>
+        <v>-9.2609473648671489E-2</v>
+      </c>
+      <c r="AE12" s="40">
+        <f t="shared" si="4"/>
+        <v>-6.3867390982408E-6</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="5"/>
+        <v>8.6827219641917711E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2359,8 +2650,28 @@
       <c r="AA13">
         <v>6.48</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="40">
+        <f t="shared" si="1"/>
+        <v>-4.3625243040967647E-2</v>
+      </c>
+      <c r="AC13" s="40">
+        <f t="shared" si="2"/>
+        <v>0.22315189407870534</v>
+      </c>
+      <c r="AD13" s="40">
+        <f t="shared" si="3"/>
+        <v>-9.0622833613136555E-2</v>
+      </c>
+      <c r="AE13" s="40">
+        <f t="shared" si="4"/>
+        <v>-1.9833389972007587E-6</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="5"/>
+        <v>2.2225458521400981E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -2443,8 +2754,28 @@
       <c r="AA14">
         <v>16.170000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.9830252734817051</v>
+      </c>
+      <c r="AC14" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.51111111111111107</v>
+      </c>
+      <c r="AD14" s="40">
+        <f t="shared" si="3"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="AE14" s="40">
+        <f t="shared" si="4"/>
+        <v>1.4443636363636207E-2</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="5"/>
+        <v>-0.24492318705729496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2527,8 +2858,28 @@
       <c r="AA15">
         <v>7.64</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="40">
+        <f t="shared" si="1"/>
+        <v>0.89784917963819932</v>
+      </c>
+      <c r="AC15" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.58605688635198605</v>
+      </c>
+      <c r="AD15" s="40">
+        <f t="shared" si="3"/>
+        <v>0.31703929312537665</v>
+      </c>
+      <c r="AE15" s="40">
+        <f t="shared" si="4"/>
+        <v>-8.5335637416603719E-7</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="5"/>
+        <v>0.15720768326380394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2611,8 +2962,28 @@
       <c r="AA16">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" s="40">
+        <f t="shared" si="1"/>
+        <v>0.4021955530747045</v>
+      </c>
+      <c r="AC16" s="40">
+        <f t="shared" si="2"/>
+        <v>0.31154045195790925</v>
+      </c>
+      <c r="AD16" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.16215259158834061</v>
+      </c>
+      <c r="AE16" s="40">
+        <f t="shared" si="4"/>
+        <v>1.8383809108405034E-6</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="5"/>
+        <v>0.13789631295629601</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -2695,8 +3066,28 @@
       <c r="AA17">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.18853194765837947</v>
+      </c>
+      <c r="AC17" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.17565633911446232</v>
+      </c>
+      <c r="AD17" s="40">
+        <f t="shared" si="3"/>
+        <v>0.80035701095654332</v>
+      </c>
+      <c r="AE17" s="40">
+        <f t="shared" si="4"/>
+        <v>1.3525433682035295E-7</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="5"/>
+        <v>0.1090422148595096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2779,8 +3170,28 @@
       <c r="AA18">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" s="40">
+        <f t="shared" si="1"/>
+        <v>5.771978021978021</v>
+      </c>
+      <c r="AC18" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.44300202839756586</v>
+      </c>
+      <c r="AD18" s="40">
+        <f t="shared" si="3"/>
+        <v>0.12527312454479234</v>
+      </c>
+      <c r="AE18" s="40">
+        <f t="shared" si="4"/>
+        <v>-2.0388349514573079E-4</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="5"/>
+        <v>1.3635113086575255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2863,8 +3274,28 @@
       <c r="AA19">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.19082475638421692</v>
+      </c>
+      <c r="AC19" s="40">
+        <f t="shared" si="2"/>
+        <v>0.33885876654280872</v>
+      </c>
+      <c r="AD19" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.2776622131877044</v>
+      </c>
+      <c r="AE19" s="40">
+        <f t="shared" si="4"/>
+        <v>1.6768248202639138E-7</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="5"/>
+        <v>-3.240700883665764E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2947,8 +3378,28 @@
       <c r="AA20">
         <v>4.4400000000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.28164458300857365</v>
+      </c>
+      <c r="AC20" s="40">
+        <f t="shared" si="2"/>
+        <v>0.11905278576466116</v>
+      </c>
+      <c r="AD20" s="40">
+        <f t="shared" si="3"/>
+        <v>6.3386256211368258E-2</v>
+      </c>
+      <c r="AE20" s="40">
+        <f t="shared" si="4"/>
+        <v>8.4533850011764339E-6</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="5"/>
+        <v>-2.4799271911885763E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3031,8 +3482,28 @@
       <c r="AA21">
         <v>7.88</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.33335801554979644</v>
+      </c>
+      <c r="AC21" s="40">
+        <f t="shared" si="2"/>
+        <v>0.17560813062312564</v>
+      </c>
+      <c r="AD21" s="40">
+        <f t="shared" si="3"/>
+        <v>0.22448979591836726</v>
+      </c>
+      <c r="AE21" s="40">
+        <f t="shared" si="4"/>
+        <v>2.5208333332409158E-6</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="5"/>
+        <v>1.6685607956257426E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3115,8 +3586,28 @@
       <c r="AA22">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" s="40">
+        <f t="shared" si="1"/>
+        <v>0.33480825958702048</v>
+      </c>
+      <c r="AC22" s="40">
+        <f t="shared" si="2"/>
+        <v>-9.5410982072386977E-2</v>
+      </c>
+      <c r="AD22" s="40">
+        <f t="shared" si="3"/>
+        <v>0.24497681607418867</v>
+      </c>
+      <c r="AE22" s="40">
+        <f t="shared" si="4"/>
+        <v>1.5203940649369321E-6</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="5"/>
+        <v>0.12109390349572179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3199,8 +3690,28 @@
       <c r="AA23">
         <v>8.3699999999999992</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" s="40">
+        <f t="shared" si="1"/>
+        <v>9.0395480225988784E-2</v>
+      </c>
+      <c r="AC23" s="40">
+        <f t="shared" si="2"/>
+        <v>0.38031088082901554</v>
+      </c>
+      <c r="AD23" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.17567567567567566</v>
+      </c>
+      <c r="AE23" s="40">
+        <f t="shared" si="4"/>
+        <v>-6.0837887067162876E-5</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="5"/>
+        <v>7.3742461873065365E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3283,8 +3794,28 @@
       <c r="AA24">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" s="40">
+        <f t="shared" si="1"/>
+        <v>-1.7198299673473055E-2</v>
+      </c>
+      <c r="AC24" s="40">
+        <f t="shared" si="2"/>
+        <v>3.1679271064844236E-2</v>
+      </c>
+      <c r="AD24" s="40">
+        <f t="shared" si="3"/>
+        <v>1.9275788189890015E-2</v>
+      </c>
+      <c r="AE24" s="40">
+        <f t="shared" si="4"/>
+        <v>0.12690059623240385</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="5"/>
+        <v>4.0164338953416263E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3367,8 +3898,28 @@
       <c r="AA25">
         <v>14.36</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.31821858254979268</v>
+      </c>
+      <c r="AC25" s="40">
+        <f t="shared" si="2"/>
+        <v>4.824720100837844</v>
+      </c>
+      <c r="AD25" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.35017439344178825</v>
+      </c>
+      <c r="AE25" s="40">
+        <f t="shared" si="4"/>
+        <v>0.40919988168230514</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="5"/>
+        <v>1.1413817516321421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3451,8 +4002,28 @@
       <c r="AA26">
         <v>12.43</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" s="40">
+        <f t="shared" si="1"/>
+        <v>0.47653171170905229</v>
+      </c>
+      <c r="AC26" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.32883497523403959</v>
+      </c>
+      <c r="AD26" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.14652001012793972</v>
+      </c>
+      <c r="AE26" s="40">
+        <f t="shared" si="4"/>
+        <v>0.11069378624342313</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="5"/>
+        <v>2.7967628147624025E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3535,8 +4106,28 @@
       <c r="AA27">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" s="40">
+        <f t="shared" si="1"/>
+        <v>-6.3923651751147791E-3</v>
+      </c>
+      <c r="AC27" s="40">
+        <f t="shared" si="2"/>
+        <v>0.14202005557569181</v>
+      </c>
+      <c r="AD27" s="40">
+        <f t="shared" si="3"/>
+        <v>8.8799259455170559E-2</v>
+      </c>
+      <c r="AE27" s="40">
+        <f t="shared" si="4"/>
+        <v>1.4897786895002127</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="5"/>
+        <v>0.42855140983899009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -3619,8 +4210,28 @@
       <c r="AA28">
         <v>10.54</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB28" s="40">
+        <f t="shared" si="1"/>
+        <v>0.26462460077115307</v>
+      </c>
+      <c r="AC28" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.12505888510861038</v>
+      </c>
+      <c r="AD28" s="40">
+        <f t="shared" si="3"/>
+        <v>8.4624530756920835E-2</v>
+      </c>
+      <c r="AE28" s="40">
+        <f t="shared" si="4"/>
+        <v>-0.39144458348415118</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="5"/>
+        <v>-4.1813584266171912E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3703,8 +4314,28 @@
       <c r="AA29">
         <v>26.35</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB29" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.24675183355459313</v>
+      </c>
+      <c r="AC29" s="40">
+        <f t="shared" si="2"/>
+        <v>0.51016295397417</v>
+      </c>
+      <c r="AD29" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.11608863889646202</v>
+      </c>
+      <c r="AE29" s="40">
+        <f t="shared" si="4"/>
+        <v>0.58179565735219296</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="5"/>
+        <v>0.18227953471882696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -3787,8 +4418,28 @@
       <c r="AA30">
         <v>11.97</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB30" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.20257431482217056</v>
+      </c>
+      <c r="AC30" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.44611677279519657</v>
+      </c>
+      <c r="AD30" s="40">
+        <f t="shared" si="3"/>
+        <v>0.78616046472060852</v>
+      </c>
+      <c r="AE30" s="40">
+        <f t="shared" si="4"/>
+        <v>-0.20093635713767313</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="5"/>
+        <v>-1.5866745008607942E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3871,8 +4522,28 @@
       <c r="AA31">
         <v>8.82</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB31" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.24692369268574194</v>
+      </c>
+      <c r="AC31" s="40">
+        <f t="shared" si="2"/>
+        <v>6.7621684423899389E-2</v>
+      </c>
+      <c r="AD31" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.26922676175370752</v>
+      </c>
+      <c r="AE31" s="40">
+        <f t="shared" si="4"/>
+        <v>0.20383424162732475</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="5"/>
+        <v>-6.1173632097056334E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -3955,8 +4626,28 @@
       <c r="AA32">
         <v>12.72</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB32" s="40">
+        <f t="shared" si="1"/>
+        <v>0.18736683794961759</v>
+      </c>
+      <c r="AC32" s="40">
+        <f t="shared" si="2"/>
+        <v>2.1110407430874217E-4</v>
+      </c>
+      <c r="AD32" s="40">
+        <f t="shared" si="3"/>
+        <v>0.30724989447024054</v>
+      </c>
+      <c r="AE32" s="40">
+        <f t="shared" si="4"/>
+        <v>-8.0712682139254532E-3</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="5"/>
+        <v>0.12168914207006035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -4039,8 +4730,28 @@
       <c r="AA33">
         <v>11.61</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB33" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.10899299344066787</v>
+      </c>
+      <c r="AC33" s="40">
+        <f t="shared" si="2"/>
+        <v>0.4393286625535921</v>
+      </c>
+      <c r="AD33" s="40">
+        <f t="shared" si="3"/>
+        <v>0.17875954461905069</v>
+      </c>
+      <c r="AE33" s="40">
+        <f t="shared" si="4"/>
+        <v>-0.25249098700754402</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="5"/>
+        <v>6.415105668110771E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -4123,8 +4834,28 @@
       <c r="AA34">
         <v>18.86</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB34" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.13703226014911671</v>
+      </c>
+      <c r="AC34" s="40">
+        <f t="shared" si="2"/>
+        <v>0.10734020811557123</v>
+      </c>
+      <c r="AD34" s="40">
+        <f t="shared" si="3"/>
+        <v>-8.7090057115162975E-2</v>
+      </c>
+      <c r="AE34" s="40">
+        <f t="shared" si="4"/>
+        <v>0.29473335668803585</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="5"/>
+        <v>4.4487811884831849E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4207,8 +4938,28 @@
       <c r="AA35">
         <v>8.44</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB35" s="40">
+        <f t="shared" si="1"/>
+        <v>-7.53525264394828E-2</v>
+      </c>
+      <c r="AC35" s="40">
+        <f t="shared" si="2"/>
+        <v>0.24245199271130197</v>
+      </c>
+      <c r="AD35" s="40">
+        <f t="shared" si="3"/>
+        <v>-9.8284459352742423E-2</v>
+      </c>
+      <c r="AE35" s="40">
+        <f t="shared" si="4"/>
+        <v>0.51577869141651322</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="5"/>
+        <v>0.14614842458389748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4291,8 +5042,28 @@
       <c r="AA36">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB36" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.16627099798659731</v>
+      </c>
+      <c r="AC36" s="40">
+        <f t="shared" si="2"/>
+        <v>0.79869521337946936</v>
+      </c>
+      <c r="AD36" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.27511372061799888</v>
+      </c>
+      <c r="AE36" s="40">
+        <f t="shared" si="4"/>
+        <v>0.6565203071266652</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="5"/>
+        <v>0.25345770047538463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -4375,8 +5146,28 @@
       <c r="AA37">
         <v>7.03</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB37" s="40">
+        <f t="shared" si="1"/>
+        <v>2.5410019333710277E-2</v>
+      </c>
+      <c r="AC37" s="40">
+        <f t="shared" si="2"/>
+        <v>0.43257872122106089</v>
+      </c>
+      <c r="AD37" s="40">
+        <f t="shared" si="3"/>
+        <v>0.12118254828052386</v>
+      </c>
+      <c r="AE37" s="40">
+        <f t="shared" si="4"/>
+        <v>-0.35573378036509995</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="5"/>
+        <v>5.5859377117548764E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4459,8 +5250,28 @@
       <c r="AA38">
         <v>8.7100000000000009</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB38" s="40">
+        <f t="shared" si="1"/>
+        <v>0.50451059094702533</v>
+      </c>
+      <c r="AC38" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.15875112261609162</v>
+      </c>
+      <c r="AD38" s="40">
+        <f t="shared" si="3"/>
+        <v>-0.2174390856568702</v>
+      </c>
+      <c r="AE38" s="40">
+        <f t="shared" si="4"/>
+        <v>8.764514384303658E-2</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="5"/>
+        <v>5.3991381629275026E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4543,8 +5354,28 @@
       <c r="AA39">
         <v>8.5299999999999994</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB39" s="40">
+        <f t="shared" si="1"/>
+        <v>-0.27112745419922513</v>
+      </c>
+      <c r="AC39" s="40">
+        <f t="shared" si="2"/>
+        <v>-8.8018018018017979E-2</v>
+      </c>
+      <c r="AD39" s="40">
+        <f t="shared" si="3"/>
+        <v>0.21490664822681019</v>
+      </c>
+      <c r="AE39" s="40">
+        <f t="shared" si="4"/>
+        <v>0.73933451193234945</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="5"/>
+        <v>0.14877392198547912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -4627,8 +5458,28 @@
       <c r="AA40">
         <v>15.37</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB40" s="40">
+        <f t="shared" si="1"/>
+        <v>0.83723492150922629</v>
+      </c>
+      <c r="AC40" s="40">
+        <f t="shared" si="2"/>
+        <v>-0.35821358973809886</v>
+      </c>
+      <c r="AD40" s="40">
+        <f t="shared" si="3"/>
+        <v>0.33076961577603897</v>
+      </c>
+      <c r="AE40" s="40">
+        <f t="shared" si="4"/>
+        <v>0.17433693863223237</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="5"/>
+        <v>0.24603197154484968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -4711,15 +5562,36 @@
       <c r="AA41">
         <v>9.83</v>
       </c>
+      <c r="AB41" s="40">
+        <f t="shared" si="1"/>
+        <v>1.1534342970781647E-2</v>
+      </c>
+      <c r="AC41" s="40">
+        <f t="shared" si="2"/>
+        <v>-4.0605529006109767E-2</v>
+      </c>
+      <c r="AD41" s="40">
+        <f t="shared" si="3"/>
+        <v>1.6204542946767719E-2</v>
+      </c>
+      <c r="AE41" s="40">
+        <f t="shared" si="4"/>
+        <v>6.3284200443638056E-2</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="5"/>
+        <v>1.2604389338769412E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -4730,11 +5602,12 @@
     <col min="3" max="3" width="16.09765625" customWidth="1"/>
     <col min="4" max="4" width="15.69921875" customWidth="1"/>
     <col min="5" max="5" width="15.09765625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4751,13 +5624,16 @@
         <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4776,16 +5652,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E2,alldata_from_python!J2,alldata_from_python!O2,alldata_from_python!T2,alldata_from_python!Y2),2)</f>
         <v>4230.29</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="24">
+        <v>-9.5186631810465147E-3</v>
+      </c>
+      <c r="G2">
         <f>ROUND(AVERAGE(alldata_from_python!F2,alldata_from_python!K2,alldata_from_python!P2,alldata_from_python!U2,alldata_from_python!Z2),2)</f>
         <v>549.52</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>ROUND(AVERAGE(alldata_from_python!G2,alldata_from_python!L2,alldata_from_python!Q2,alldata_from_python!V2,alldata_from_python!AA2),2)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4804,16 +5683,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E3,alldata_from_python!J3,alldata_from_python!O3,alldata_from_python!T3,alldata_from_python!Y3),2)</f>
         <v>1922.73</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="24">
+        <v>-8.3405664818412023E-2</v>
+      </c>
+      <c r="G3">
         <f>ROUND(AVERAGE(alldata_from_python!F3,alldata_from_python!K3,alldata_from_python!P3,alldata_from_python!U3,alldata_from_python!Z3),2)</f>
         <v>549.79999999999995</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>ROUND(AVERAGE(alldata_from_python!G3,alldata_from_python!L3,alldata_from_python!Q3,alldata_from_python!V3,alldata_from_python!AA3),2)</f>
         <v>9.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4832,16 +5714,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E4,alldata_from_python!J4,alldata_from_python!O4,alldata_from_python!T4,alldata_from_python!Y4),2)</f>
         <v>88.71</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="24">
+        <v>0.35026031168979133</v>
+      </c>
+      <c r="G4">
         <f>ROUND(AVERAGE(alldata_from_python!F4,alldata_from_python!K4,alldata_from_python!P4,alldata_from_python!U4,alldata_from_python!Z4),2)</f>
         <v>615.79</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>ROUND(AVERAGE(alldata_from_python!G4,alldata_from_python!L4,alldata_from_python!Q4,alldata_from_python!V4,alldata_from_python!AA4),2)</f>
         <v>5.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4860,16 +5745,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E5,alldata_from_python!J5,alldata_from_python!O5,alldata_from_python!T5,alldata_from_python!Y5),2)</f>
         <v>2218.5300000000002</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="24">
+        <v>7.0185830475224059E-2</v>
+      </c>
+      <c r="G5">
         <f>ROUND(AVERAGE(alldata_from_python!F5,alldata_from_python!K5,alldata_from_python!P5,alldata_from_python!U5,alldata_from_python!Z5),2)</f>
         <v>543.32000000000005</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>ROUND(AVERAGE(alldata_from_python!G5,alldata_from_python!L5,alldata_from_python!Q5,alldata_from_python!V5,alldata_from_python!AA5),2)</f>
         <v>9.43</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4888,16 +5776,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E6,alldata_from_python!J6,alldata_from_python!O6,alldata_from_python!T6,alldata_from_python!Y6),2)</f>
         <v>12214.2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="24">
+        <v>1.0067110852902452E-2</v>
+      </c>
+      <c r="G6">
         <f>ROUND(AVERAGE(alldata_from_python!F6,alldata_from_python!K6,alldata_from_python!P6,alldata_from_python!U6,alldata_from_python!Z6),2)</f>
         <v>625.66</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>ROUND(AVERAGE(alldata_from_python!G6,alldata_from_python!L6,alldata_from_python!Q6,alldata_from_python!V6,alldata_from_python!AA6),2)</f>
         <v>6.24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4916,16 +5807,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E7,alldata_from_python!J7,alldata_from_python!O7,alldata_from_python!T7,alldata_from_python!Y7),2)</f>
         <v>25.06</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="24">
+        <v>-0.23016387952640222</v>
+      </c>
+      <c r="G7">
         <f>ROUND(AVERAGE(alldata_from_python!F7,alldata_from_python!K7,alldata_from_python!P7,alldata_from_python!U7,alldata_from_python!Z7),2)</f>
         <v>728.22</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>ROUND(AVERAGE(alldata_from_python!G7,alldata_from_python!L7,alldata_from_python!Q7,alldata_from_python!V7,alldata_from_python!AA7),2)</f>
         <v>20.36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4944,16 +5838,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E8,alldata_from_python!J8,alldata_from_python!O8,alldata_from_python!T8,alldata_from_python!Y8),2)</f>
         <v>3512.03</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="24">
+        <v>5.3055407904619614E-2</v>
+      </c>
+      <c r="G8">
         <f>ROUND(AVERAGE(alldata_from_python!F8,alldata_from_python!K8,alldata_from_python!P8,alldata_from_python!U8,alldata_from_python!Z8),2)</f>
         <v>656.4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>ROUND(AVERAGE(alldata_from_python!G8,alldata_from_python!L8,alldata_from_python!Q8,alldata_from_python!V8,alldata_from_python!AA8),2)</f>
         <v>7.83</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4972,16 +5869,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E9,alldata_from_python!J9,alldata_from_python!O9,alldata_from_python!T9,alldata_from_python!Y9),2)</f>
         <v>1612.63</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="24">
+        <v>-1.6364874379347024E-2</v>
+      </c>
+      <c r="G9">
         <f>ROUND(AVERAGE(alldata_from_python!F9,alldata_from_python!K9,alldata_from_python!P9,alldata_from_python!U9,alldata_from_python!Z9),2)</f>
         <v>687.83</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>ROUND(AVERAGE(alldata_from_python!G9,alldata_from_python!L9,alldata_from_python!Q9,alldata_from_python!V9,alldata_from_python!AA9),2)</f>
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -5000,16 +5900,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E10,alldata_from_python!J10,alldata_from_python!O10,alldata_from_python!T10,alldata_from_python!Y10),2)</f>
         <v>79.819999999999993</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="24">
+        <v>-0.17834898381746309</v>
+      </c>
+      <c r="G10">
         <f>ROUND(AVERAGE(alldata_from_python!F10,alldata_from_python!K10,alldata_from_python!P10,alldata_from_python!U10,alldata_from_python!Z10),2)</f>
         <v>509.48</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f>ROUND(AVERAGE(alldata_from_python!G10,alldata_from_python!L10,alldata_from_python!Q10,alldata_from_python!V10,alldata_from_python!AA10),2)</f>
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5028,16 +5931,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E11,alldata_from_python!J11,alldata_from_python!O11,alldata_from_python!T11,alldata_from_python!Y11),2)</f>
         <v>44.04</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="24">
+        <v>0.36399737239702562</v>
+      </c>
+      <c r="G11">
         <f>ROUND(AVERAGE(alldata_from_python!F11,alldata_from_python!K11,alldata_from_python!P11,alldata_from_python!U11,alldata_from_python!Z11),2)</f>
         <v>578.80999999999995</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f>ROUND(AVERAGE(alldata_from_python!G11,alldata_from_python!L11,alldata_from_python!Q11,alldata_from_python!V11,alldata_from_python!AA11),2)</f>
         <v>11.55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5056,16 +5962,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E12,alldata_from_python!J12,alldata_from_python!O12,alldata_from_python!T12,alldata_from_python!Y12),2)</f>
         <v>435.26</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="24">
+        <v>8.6827219641917711E-2</v>
+      </c>
+      <c r="G12">
         <f>ROUND(AVERAGE(alldata_from_python!F12,alldata_from_python!K12,alldata_from_python!P12,alldata_from_python!U12,alldata_from_python!Z12),2)</f>
         <v>619.29</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f>ROUND(AVERAGE(alldata_from_python!G12,alldata_from_python!L12,alldata_from_python!Q12,alldata_from_python!V12,alldata_from_python!AA12),2)</f>
         <v>2.64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -5084,16 +5993,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E13,alldata_from_python!J13,alldata_from_python!O13,alldata_from_python!T13,alldata_from_python!Y13),2)</f>
         <v>1075.43</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="24">
+        <v>2.2225458521400981E-2</v>
+      </c>
+      <c r="G13">
         <f>ROUND(AVERAGE(alldata_from_python!F13,alldata_from_python!K13,alldata_from_python!P13,alldata_from_python!U13,alldata_from_python!Z13),2)</f>
         <v>571.32000000000005</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f>ROUND(AVERAGE(alldata_from_python!G13,alldata_from_python!L13,alldata_from_python!Q13,alldata_from_python!V13,alldata_from_python!AA13),2)</f>
         <v>6.75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5112,16 +6024,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E14,alldata_from_python!J14,alldata_from_python!O14,alldata_from_python!T14,alldata_from_python!Y14),2)</f>
         <v>5.57</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="24">
+        <v>-0.24492318705729496</v>
+      </c>
+      <c r="G14">
         <f>ROUND(AVERAGE(alldata_from_python!F14,alldata_from_python!K14,alldata_from_python!P14,alldata_from_python!U14,alldata_from_python!Z14),2)</f>
         <v>588.04999999999995</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f>ROUND(AVERAGE(alldata_from_python!G14,alldata_from_python!L14,alldata_from_python!Q14,alldata_from_python!V14,alldata_from_python!AA14),2)</f>
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -5140,16 +6055,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E15,alldata_from_python!J15,alldata_from_python!O15,alldata_from_python!T15,alldata_from_python!Y15),2)</f>
         <v>875.16</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="24">
+        <v>0.15720768326380394</v>
+      </c>
+      <c r="G15">
         <f>ROUND(AVERAGE(alldata_from_python!F15,alldata_from_python!K15,alldata_from_python!P15,alldata_from_python!U15,alldata_from_python!Z15),2)</f>
         <v>570.79999999999995</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f>ROUND(AVERAGE(alldata_from_python!G15,alldata_from_python!L15,alldata_from_python!Q15,alldata_from_python!V15,alldata_from_python!AA15),2)</f>
         <v>7.66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -5168,16 +6086,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E16,alldata_from_python!J16,alldata_from_python!O16,alldata_from_python!T16,alldata_from_python!Y16),2)</f>
         <v>787.14</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="24">
+        <v>0.13789631295629601</v>
+      </c>
+      <c r="G16">
         <f>ROUND(AVERAGE(alldata_from_python!F16,alldata_from_python!K16,alldata_from_python!P16,alldata_from_python!U16,alldata_from_python!Z16),2)</f>
         <v>614.84</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f>ROUND(AVERAGE(alldata_from_python!G16,alldata_from_python!L16,alldata_from_python!Q16,alldata_from_python!V16,alldata_from_python!AA16),2)</f>
         <v>7.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -5196,16 +6117,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E17,alldata_from_python!J17,alldata_from_python!O17,alldata_from_python!T17,alldata_from_python!Y17),2)</f>
         <v>1187.3800000000001</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="24">
+        <v>0.1090422148595096</v>
+      </c>
+      <c r="G17">
         <f>ROUND(AVERAGE(alldata_from_python!F17,alldata_from_python!K17,alldata_from_python!P17,alldata_from_python!U17,alldata_from_python!Z17),2)</f>
         <v>618.13</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f>ROUND(AVERAGE(alldata_from_python!G17,alldata_from_python!L17,alldata_from_python!Q17,alldata_from_python!V17,alldata_from_python!AA17),2)</f>
         <v>5.79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -5224,16 +6148,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E18,alldata_from_python!J18,alldata_from_python!O18,alldata_from_python!T18,alldata_from_python!Y18),2)</f>
         <v>14.58</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="24">
+        <v>1.3635113086575255</v>
+      </c>
+      <c r="G18">
         <f>ROUND(AVERAGE(alldata_from_python!F18,alldata_from_python!K18,alldata_from_python!P18,alldata_from_python!U18,alldata_from_python!Z18),2)</f>
         <v>457.19</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f>ROUND(AVERAGE(alldata_from_python!G18,alldata_from_python!L18,alldata_from_python!Q18,alldata_from_python!V18,alldata_from_python!AA18),2)</f>
         <v>3.73</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -5252,16 +6179,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E19,alldata_from_python!J19,alldata_from_python!O19,alldata_from_python!T19,alldata_from_python!Y19),2)</f>
         <v>1562.64</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="24">
+        <v>-3.240700883665764E-2</v>
+      </c>
+      <c r="G19">
         <f>ROUND(AVERAGE(alldata_from_python!F19,alldata_from_python!K19,alldata_from_python!P19,alldata_from_python!U19,alldata_from_python!Z19),2)</f>
         <v>578.03</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f>ROUND(AVERAGE(alldata_from_python!G19,alldata_from_python!L19,alldata_from_python!Q19,alldata_from_python!V19,alldata_from_python!AA19),2)</f>
         <v>4.87</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -5280,16 +6210,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E20,alldata_from_python!J20,alldata_from_python!O20,alldata_from_python!T20,alldata_from_python!Y20),2)</f>
         <v>434.36</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="24">
+        <v>-2.4799271911885763E-2</v>
+      </c>
+      <c r="G20">
         <f>ROUND(AVERAGE(alldata_from_python!F20,alldata_from_python!K20,alldata_from_python!P20,alldata_from_python!U20,alldata_from_python!Z20),2)</f>
         <v>638.83000000000004</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f>ROUND(AVERAGE(alldata_from_python!G20,alldata_from_python!L20,alldata_from_python!Q20,alldata_from_python!V20,alldata_from_python!AA20),2)</f>
         <v>5.12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -5308,16 +6241,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E21,alldata_from_python!J21,alldata_from_python!O21,alldata_from_python!T21,alldata_from_python!Y21),2)</f>
         <v>118.02</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="24">
+        <v>1.6685607956257426E-2</v>
+      </c>
+      <c r="G21">
         <f>ROUND(AVERAGE(alldata_from_python!F21,alldata_from_python!K21,alldata_from_python!P21,alldata_from_python!U21,alldata_from_python!Z21),2)</f>
         <v>566.13</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f>ROUND(AVERAGE(alldata_from_python!G21,alldata_from_python!L21,alldata_from_python!Q21,alldata_from_python!V21,alldata_from_python!AA21),2)</f>
         <v>8.18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -5336,16 +6272,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E22,alldata_from_python!J22,alldata_from_python!O22,alldata_from_python!T22,alldata_from_python!Y22),2)</f>
         <v>435.13</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="24">
+        <v>0.12109390349572179</v>
+      </c>
+      <c r="G22">
         <f>ROUND(AVERAGE(alldata_from_python!F22,alldata_from_python!K22,alldata_from_python!P22,alldata_from_python!U22,alldata_from_python!Z22),2)</f>
         <v>641.98</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f>ROUND(AVERAGE(alldata_from_python!G22,alldata_from_python!L22,alldata_from_python!Q22,alldata_from_python!V22,alldata_from_python!AA22),2)</f>
         <v>7.22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5364,16 +6303,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E23,alldata_from_python!J23,alldata_from_python!O23,alldata_from_python!T23,alldata_from_python!Y23),2)</f>
         <v>10.76</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="24">
+        <v>7.3742461873065365E-2</v>
+      </c>
+      <c r="G23">
         <f>ROUND(AVERAGE(alldata_from_python!F23,alldata_from_python!K23,alldata_from_python!P23,alldata_from_python!U23,alldata_from_python!Z23),2)</f>
         <v>520.07000000000005</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f>ROUND(AVERAGE(alldata_from_python!G23,alldata_from_python!L23,alldata_from_python!Q23,alldata_from_python!V23,alldata_from_python!AA23),2)</f>
         <v>8.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -5392,16 +6334,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E24,alldata_from_python!J24,alldata_from_python!O24,alldata_from_python!T24,alldata_from_python!Y24),2)</f>
         <v>20029.93</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="24">
+        <v>4.0164338953416263E-2</v>
+      </c>
+      <c r="G24">
         <f>ROUND(AVERAGE(alldata_from_python!F24,alldata_from_python!K24,alldata_from_python!P24,alldata_from_python!U24,alldata_from_python!Z24),2)</f>
         <v>848.81</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f>ROUND(AVERAGE(alldata_from_python!G24,alldata_from_python!L24,alldata_from_python!Q24,alldata_from_python!V24,alldata_from_python!AA24),2)</f>
         <v>11.65</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -5420,16 +6365,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E25,alldata_from_python!J25,alldata_from_python!O25,alldata_from_python!T25,alldata_from_python!Y25),2)</f>
         <v>469.63</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="24">
+        <v>1.1413817516321421</v>
+      </c>
+      <c r="G25">
         <f>ROUND(AVERAGE(alldata_from_python!F25,alldata_from_python!K25,alldata_from_python!P25,alldata_from_python!U25,alldata_from_python!Z25),2)</f>
         <v>1252.33</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f>ROUND(AVERAGE(alldata_from_python!G25,alldata_from_python!L25,alldata_from_python!Q25,alldata_from_python!V25,alldata_from_python!AA25),2)</f>
         <v>7.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5448,16 +6396,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E26,alldata_from_python!J26,alldata_from_python!O26,alldata_from_python!T26,alldata_from_python!Y26),2)</f>
         <v>1423.51</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="24">
+        <v>2.7967628147624025E-2</v>
+      </c>
+      <c r="G26">
         <f>ROUND(AVERAGE(alldata_from_python!F26,alldata_from_python!K26,alldata_from_python!P26,alldata_from_python!U26,alldata_from_python!Z26),2)</f>
         <v>893.42</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f>ROUND(AVERAGE(alldata_from_python!G26,alldata_from_python!L26,alldata_from_python!Q26,alldata_from_python!V26,alldata_from_python!AA26),2)</f>
         <v>10.35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -5476,16 +6427,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E27,alldata_from_python!J27,alldata_from_python!O27,alldata_from_python!T27,alldata_from_python!Y27),2)</f>
         <v>991.62</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="24">
+        <v>0.42855140983899009</v>
+      </c>
+      <c r="G27">
         <f>ROUND(AVERAGE(alldata_from_python!F27,alldata_from_python!K27,alldata_from_python!P27,alldata_from_python!U27,alldata_from_python!Z27),2)</f>
         <v>839.39</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f>ROUND(AVERAGE(alldata_from_python!G27,alldata_from_python!L27,alldata_from_python!Q27,alldata_from_python!V27,alldata_from_python!AA27),2)</f>
         <v>12.44</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -5504,16 +6458,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E28,alldata_from_python!J28,alldata_from_python!O28,alldata_from_python!T28,alldata_from_python!Y28),2)</f>
         <v>2562.9299999999998</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="24">
+        <v>-4.1813584266171912E-2</v>
+      </c>
+      <c r="G28">
         <f>ROUND(AVERAGE(alldata_from_python!F28,alldata_from_python!K28,alldata_from_python!P28,alldata_from_python!U28,alldata_from_python!Z28),2)</f>
         <v>796.96</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f>ROUND(AVERAGE(alldata_from_python!G28,alldata_from_python!L28,alldata_from_python!Q28,alldata_from_python!V28,alldata_from_python!AA28),2)</f>
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5532,16 +6489,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E29,alldata_from_python!J29,alldata_from_python!O29,alldata_from_python!T29,alldata_from_python!Y29),2)</f>
         <v>2016.87</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="24">
+        <v>0.18227953471882696</v>
+      </c>
+      <c r="G29">
         <f>ROUND(AVERAGE(alldata_from_python!F29,alldata_from_python!K29,alldata_from_python!P29,alldata_from_python!U29,alldata_from_python!Z29),2)</f>
         <v>1041.3900000000001</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f>ROUND(AVERAGE(alldata_from_python!G29,alldata_from_python!L29,alldata_from_python!Q29,alldata_from_python!V29,alldata_from_python!AA29),2)</f>
         <v>21.76</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -5560,16 +6520,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E30,alldata_from_python!J30,alldata_from_python!O30,alldata_from_python!T30,alldata_from_python!Y30),2)</f>
         <v>2044.71</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="24">
+        <v>-1.5866745008607942E-2</v>
+      </c>
+      <c r="G30">
         <f>ROUND(AVERAGE(alldata_from_python!F30,alldata_from_python!K30,alldata_from_python!P30,alldata_from_python!U30,alldata_from_python!Z30),2)</f>
         <v>714.12</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f>ROUND(AVERAGE(alldata_from_python!G30,alldata_from_python!L30,alldata_from_python!Q30,alldata_from_python!V30,alldata_from_python!AA30),2)</f>
         <v>15.06</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -5588,16 +6551,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E31,alldata_from_python!J31,alldata_from_python!O31,alldata_from_python!T31,alldata_from_python!Y31),2)</f>
         <v>827.65</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="24">
+        <v>-6.1173632097056334E-2</v>
+      </c>
+      <c r="G31">
         <f>ROUND(AVERAGE(alldata_from_python!F31,alldata_from_python!K31,alldata_from_python!P31,alldata_from_python!U31,alldata_from_python!Z31),2)</f>
         <v>875.6</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f>ROUND(AVERAGE(alldata_from_python!G31,alldata_from_python!L31,alldata_from_python!Q31,alldata_from_python!V31,alldata_from_python!AA31),2)</f>
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -5616,16 +6582,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E32,alldata_from_python!J32,alldata_from_python!O32,alldata_from_python!T32,alldata_from_python!Y32),2)</f>
         <v>206.42</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="24">
+        <v>0.12168914207006035</v>
+      </c>
+      <c r="G32">
         <f>ROUND(AVERAGE(alldata_from_python!F32,alldata_from_python!K32,alldata_from_python!P32,alldata_from_python!U32,alldata_from_python!Z32),2)</f>
         <v>805.34</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f>ROUND(AVERAGE(alldata_from_python!G32,alldata_from_python!L32,alldata_from_python!Q32,alldata_from_python!V32,alldata_from_python!AA32),2)</f>
         <v>10.96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -5644,16 +6613,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E33,alldata_from_python!J33,alldata_from_python!O33,alldata_from_python!T33,alldata_from_python!Y33),2)</f>
         <v>1248.26</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="24">
+        <v>6.415105668110771E-2</v>
+      </c>
+      <c r="G33">
         <f>ROUND(AVERAGE(alldata_from_python!F33,alldata_from_python!K33,alldata_from_python!P33,alldata_from_python!U33,alldata_from_python!Z33),2)</f>
         <v>854.8</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f>ROUND(AVERAGE(alldata_from_python!G33,alldata_from_python!L33,alldata_from_python!Q33,alldata_from_python!V33,alldata_from_python!AA33),2)</f>
         <v>8.52</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -5672,16 +6644,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E34,alldata_from_python!J34,alldata_from_python!O34,alldata_from_python!T34,alldata_from_python!Y34),2)</f>
         <v>3580.49</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="24">
+        <v>4.4487811884831849E-2</v>
+      </c>
+      <c r="G34">
         <f>ROUND(AVERAGE(alldata_from_python!F34,alldata_from_python!K34,alldata_from_python!P34,alldata_from_python!U34,alldata_from_python!Z34),2)</f>
         <v>834.07</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f>ROUND(AVERAGE(alldata_from_python!G34,alldata_from_python!L34,alldata_from_python!Q34,alldata_from_python!V34,alldata_from_python!AA34),2)</f>
         <v>19.59</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -5700,16 +6675,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E35,alldata_from_python!J35,alldata_from_python!O35,alldata_from_python!T35,alldata_from_python!Y35),2)</f>
         <v>1314.67</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="24">
+        <v>0.14614842458389748</v>
+      </c>
+      <c r="G35">
         <f>ROUND(AVERAGE(alldata_from_python!F35,alldata_from_python!K35,alldata_from_python!P35,alldata_from_python!U35,alldata_from_python!Z35),2)</f>
         <v>838.37</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f>ROUND(AVERAGE(alldata_from_python!G35,alldata_from_python!L35,alldata_from_python!Q35,alldata_from_python!V35,alldata_from_python!AA35),2)</f>
         <v>7.94</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -5728,16 +6706,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E36,alldata_from_python!J36,alldata_from_python!O36,alldata_from_python!T36,alldata_from_python!Y36),2)</f>
         <v>414.04</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="24">
+        <v>0.25345770047538463</v>
+      </c>
+      <c r="G36">
         <f>ROUND(AVERAGE(alldata_from_python!F36,alldata_from_python!K36,alldata_from_python!P36,alldata_from_python!U36,alldata_from_python!Z36),2)</f>
         <v>868.06</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f>ROUND(AVERAGE(alldata_from_python!G36,alldata_from_python!L36,alldata_from_python!Q36,alldata_from_python!V36,alldata_from_python!AA36),2)</f>
         <v>7.59</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5756,16 +6737,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E37,alldata_from_python!J37,alldata_from_python!O37,alldata_from_python!T37,alldata_from_python!Y37),2)</f>
         <v>943.19</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="24">
+        <v>5.5859377117548764E-2</v>
+      </c>
+      <c r="G37">
         <f>ROUND(AVERAGE(alldata_from_python!F37,alldata_from_python!K37,alldata_from_python!P37,alldata_from_python!U37,alldata_from_python!Z37),2)</f>
         <v>914.04</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f>ROUND(AVERAGE(alldata_from_python!G37,alldata_from_python!L37,alldata_from_python!Q37,alldata_from_python!V37,alldata_from_python!AA37),2)</f>
         <v>8.65</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5784,16 +6768,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E38,alldata_from_python!J38,alldata_from_python!O38,alldata_from_python!T38,alldata_from_python!Y38),2)</f>
         <v>293.8</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="24">
+        <v>5.3991381629275026E-2</v>
+      </c>
+      <c r="G38">
         <f>ROUND(AVERAGE(alldata_from_python!F38,alldata_from_python!K38,alldata_from_python!P38,alldata_from_python!U38,alldata_from_python!Z38),2)</f>
         <v>763.33</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f>ROUND(AVERAGE(alldata_from_python!G38,alldata_from_python!L38,alldata_from_python!Q38,alldata_from_python!V38,alldata_from_python!AA38),2)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5812,16 +6799,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E39,alldata_from_python!J39,alldata_from_python!O39,alldata_from_python!T39,alldata_from_python!Y39),2)</f>
         <v>280.57</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="24">
+        <v>0.14877392198547912</v>
+      </c>
+      <c r="G39">
         <f>ROUND(AVERAGE(alldata_from_python!F39,alldata_from_python!K39,alldata_from_python!P39,alldata_from_python!U39,alldata_from_python!Z39),2)</f>
         <v>709.05</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f>ROUND(AVERAGE(alldata_from_python!G39,alldata_from_python!L39,alldata_from_python!Q39,alldata_from_python!V39,alldata_from_python!AA39),2)</f>
         <v>9.35</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -5840,16 +6830,19 @@
         <f>ROUND(AVERAGE(alldata_from_python!E40,alldata_from_python!J40,alldata_from_python!O40,alldata_from_python!T40,alldata_from_python!Y40),2)</f>
         <v>755.21</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="24">
+        <v>0.24603197154484968</v>
+      </c>
+      <c r="G40">
         <f>ROUND(AVERAGE(alldata_from_python!F40,alldata_from_python!K40,alldata_from_python!P40,alldata_from_python!U40,alldata_from_python!Z40),2)</f>
         <v>869.68</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f>ROUND(AVERAGE(alldata_from_python!G40,alldata_from_python!L40,alldata_from_python!Q40,alldata_from_python!V40,alldata_from_python!AA40),2)</f>
         <v>12.55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -5868,14 +6861,20 @@
         <f>ROUND(AVERAGE(alldata_from_python!E41,alldata_from_python!J41,alldata_from_python!O41,alldata_from_python!T41,alldata_from_python!Y41),2)</f>
         <v>655.89</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="24">
+        <v>1.2604389338769412E-2</v>
+      </c>
+      <c r="G41">
         <f>ROUND(AVERAGE(alldata_from_python!F41,alldata_from_python!K41,alldata_from_python!P41,alldata_from_python!U41,alldata_from_python!Z41),2)</f>
         <v>925.75</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f>ROUND(AVERAGE(alldata_from_python!G41,alldata_from_python!L41,alldata_from_python!Q41,alldata_from_python!V41,alldata_from_python!AA41),2)</f>
         <v>11.79</v>
       </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5884,11 +6883,1296 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F8D53-65C5-4631-B4AA-EDD044912BF3}">
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="15.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(AVERAGE(alldata_from_python!C6,alldata_from_python!H6,alldata_from_python!M6,alldata_from_python!R6,alldata_from_python!W6),2)</f>
+        <v>8.15</v>
+      </c>
+      <c r="D2">
+        <f>ROUND(AVERAGE(alldata_from_python!D6,alldata_from_python!I6,alldata_from_python!N6,alldata_from_python!S6,alldata_from_python!X6),2)</f>
+        <v>1502032.96</v>
+      </c>
+      <c r="E2">
+        <f>ROUND(AVERAGE(alldata_from_python!E6,alldata_from_python!J6,alldata_from_python!O6,alldata_from_python!T6,alldata_from_python!Y6),2)</f>
+        <v>12214.2</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1.0067110852902452E-2</v>
+      </c>
+      <c r="G2">
+        <f>ROUND(AVERAGE(alldata_from_python!F6,alldata_from_python!K6,alldata_from_python!P6,alldata_from_python!U6,alldata_from_python!Z6),2)</f>
+        <v>625.66</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(AVERAGE(alldata_from_python!G6,alldata_from_python!L6,alldata_from_python!Q6,alldata_from_python!V6,alldata_from_python!AA6),2)</f>
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <f>ROUND(AVERAGE(alldata_from_python!C8,alldata_from_python!H8,alldata_from_python!M8,alldata_from_python!R8,alldata_from_python!W8),2)</f>
+        <v>7.91</v>
+      </c>
+      <c r="D3">
+        <f>ROUND(AVERAGE(alldata_from_python!D8,alldata_from_python!I8,alldata_from_python!N8,alldata_from_python!S8,alldata_from_python!X8),2)</f>
+        <v>444469.12</v>
+      </c>
+      <c r="E3">
+        <f>ROUND(AVERAGE(alldata_from_python!E8,alldata_from_python!J8,alldata_from_python!O8,alldata_from_python!T8,alldata_from_python!Y8),2)</f>
+        <v>3512.03</v>
+      </c>
+      <c r="F3" s="24">
+        <v>5.3055407904619614E-2</v>
+      </c>
+      <c r="G3">
+        <f>ROUND(AVERAGE(alldata_from_python!F8,alldata_from_python!K8,alldata_from_python!P8,alldata_from_python!U8,alldata_from_python!Z8),2)</f>
+        <v>656.4</v>
+      </c>
+      <c r="H3">
+        <f>ROUND(AVERAGE(alldata_from_python!G8,alldata_from_python!L8,alldata_from_python!Q8,alldata_from_python!V8,alldata_from_python!AA8),2)</f>
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <f>ROUND(AVERAGE(alldata_from_python!C9,alldata_from_python!H9,alldata_from_python!M9,alldata_from_python!R9,alldata_from_python!W9),2)</f>
+        <v>7.53</v>
+      </c>
+      <c r="D4">
+        <f>ROUND(AVERAGE(alldata_from_python!D9,alldata_from_python!I9,alldata_from_python!N9,alldata_from_python!S9,alldata_from_python!X9),2)</f>
+        <v>214560.55</v>
+      </c>
+      <c r="E4">
+        <f>ROUND(AVERAGE(alldata_from_python!E9,alldata_from_python!J9,alldata_from_python!O9,alldata_from_python!T9,alldata_from_python!Y9),2)</f>
+        <v>1612.63</v>
+      </c>
+      <c r="F4" s="24">
+        <v>-1.6364874379347024E-2</v>
+      </c>
+      <c r="G4">
+        <f>ROUND(AVERAGE(alldata_from_python!F9,alldata_from_python!K9,alldata_from_python!P9,alldata_from_python!U9,alldata_from_python!Z9),2)</f>
+        <v>687.83</v>
+      </c>
+      <c r="H4">
+        <f>ROUND(AVERAGE(alldata_from_python!G9,alldata_from_python!L9,alldata_from_python!Q9,alldata_from_python!V9,alldata_from_python!AA9),2)</f>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f>ROUND(AVERAGE(alldata_from_python!C19,alldata_from_python!H19,alldata_from_python!M19,alldata_from_python!R19,alldata_from_python!W19),2)</f>
+        <v>8.26</v>
+      </c>
+      <c r="D5">
+        <f>ROUND(AVERAGE(alldata_from_python!D19,alldata_from_python!I19,alldata_from_python!N19,alldata_from_python!S19,alldata_from_python!X19),2)</f>
+        <v>188590.48</v>
+      </c>
+      <c r="E5">
+        <f>ROUND(AVERAGE(alldata_from_python!E19,alldata_from_python!J19,alldata_from_python!O19,alldata_from_python!T19,alldata_from_python!Y19),2)</f>
+        <v>1562.64</v>
+      </c>
+      <c r="F5" s="24">
+        <v>-3.240700883665764E-2</v>
+      </c>
+      <c r="G5">
+        <f>ROUND(AVERAGE(alldata_from_python!F19,alldata_from_python!K19,alldata_from_python!P19,alldata_from_python!U19,alldata_from_python!Z19),2)</f>
+        <v>578.03</v>
+      </c>
+      <c r="H5">
+        <f>ROUND(AVERAGE(alldata_from_python!G19,alldata_from_python!L19,alldata_from_python!Q19,alldata_from_python!V19,alldata_from_python!AA19),2)</f>
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f>ROUND(AVERAGE(alldata_from_python!C17,alldata_from_python!H17,alldata_from_python!M17,alldata_from_python!R17,alldata_from_python!W17),2)</f>
+        <v>7.51</v>
+      </c>
+      <c r="D6">
+        <f>ROUND(AVERAGE(alldata_from_python!D17,alldata_from_python!I17,alldata_from_python!N17,alldata_from_python!S17,alldata_from_python!X17),2)</f>
+        <v>158211.6</v>
+      </c>
+      <c r="E6">
+        <f>ROUND(AVERAGE(alldata_from_python!E17,alldata_from_python!J17,alldata_from_python!O17,alldata_from_python!T17,alldata_from_python!Y17),2)</f>
+        <v>1187.3800000000001</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.1090422148595096</v>
+      </c>
+      <c r="G6">
+        <f>ROUND(AVERAGE(alldata_from_python!F17,alldata_from_python!K17,alldata_from_python!P17,alldata_from_python!U17,alldata_from_python!Z17),2)</f>
+        <v>618.13</v>
+      </c>
+      <c r="H6">
+        <f>ROUND(AVERAGE(alldata_from_python!G17,alldata_from_python!L17,alldata_from_python!Q17,alldata_from_python!V17,alldata_from_python!AA17),2)</f>
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <f>ROUND(AVERAGE(alldata_from_python!C13,alldata_from_python!H13,alldata_from_python!M13,alldata_from_python!R13,alldata_from_python!W13),2)</f>
+        <v>8.33</v>
+      </c>
+      <c r="D7">
+        <f>ROUND(AVERAGE(alldata_from_python!D13,alldata_from_python!I13,alldata_from_python!N13,alldata_from_python!S13,alldata_from_python!X13),2)</f>
+        <v>130477.34</v>
+      </c>
+      <c r="E7">
+        <f>ROUND(AVERAGE(alldata_from_python!E13,alldata_from_python!J13,alldata_from_python!O13,alldata_from_python!T13,alldata_from_python!Y13),2)</f>
+        <v>1075.43</v>
+      </c>
+      <c r="F7" s="24">
+        <v>2.2225458521400981E-2</v>
+      </c>
+      <c r="G7">
+        <f>ROUND(AVERAGE(alldata_from_python!F13,alldata_from_python!K13,alldata_from_python!P13,alldata_from_python!U13,alldata_from_python!Z13),2)</f>
+        <v>571.32000000000005</v>
+      </c>
+      <c r="H7">
+        <f>ROUND(AVERAGE(alldata_from_python!G13,alldata_from_python!L13,alldata_from_python!Q13,alldata_from_python!V13,alldata_from_python!AA13),2)</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <f>ROUND(AVERAGE(alldata_from_python!C15,alldata_from_python!H15,alldata_from_python!M15,alldata_from_python!R15,alldata_from_python!W15),2)</f>
+        <v>12.56</v>
+      </c>
+      <c r="D8">
+        <f>ROUND(AVERAGE(alldata_from_python!D15,alldata_from_python!I15,alldata_from_python!N15,alldata_from_python!S15,alldata_from_python!X15),2)</f>
+        <v>71647.62</v>
+      </c>
+      <c r="E8">
+        <f>ROUND(AVERAGE(alldata_from_python!E15,alldata_from_python!J15,alldata_from_python!O15,alldata_from_python!T15,alldata_from_python!Y15),2)</f>
+        <v>875.16</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.15720768326380394</v>
+      </c>
+      <c r="G8">
+        <f>ROUND(AVERAGE(alldata_from_python!F15,alldata_from_python!K15,alldata_from_python!P15,alldata_from_python!U15,alldata_from_python!Z15),2)</f>
+        <v>570.79999999999995</v>
+      </c>
+      <c r="H8">
+        <f>ROUND(AVERAGE(alldata_from_python!G15,alldata_from_python!L15,alldata_from_python!Q15,alldata_from_python!V15,alldata_from_python!AA15),2)</f>
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <f>ROUND(AVERAGE(alldata_from_python!C16,alldata_from_python!H16,alldata_from_python!M16,alldata_from_python!R16,alldata_from_python!W16),2)</f>
+        <v>8.15</v>
+      </c>
+      <c r="D9">
+        <f>ROUND(AVERAGE(alldata_from_python!D16,alldata_from_python!I16,alldata_from_python!N16,alldata_from_python!S16,alldata_from_python!X16),2)</f>
+        <v>97581.19</v>
+      </c>
+      <c r="E9">
+        <f>ROUND(AVERAGE(alldata_from_python!E16,alldata_from_python!J16,alldata_from_python!O16,alldata_from_python!T16,alldata_from_python!Y16),2)</f>
+        <v>787.14</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.13789631295629601</v>
+      </c>
+      <c r="G9">
+        <f>ROUND(AVERAGE(alldata_from_python!F16,alldata_from_python!K16,alldata_from_python!P16,alldata_from_python!U16,alldata_from_python!Z16),2)</f>
+        <v>614.84</v>
+      </c>
+      <c r="H9">
+        <f>ROUND(AVERAGE(alldata_from_python!G16,alldata_from_python!L16,alldata_from_python!Q16,alldata_from_python!V16,alldata_from_python!AA16),2)</f>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <f>ROUND(AVERAGE(alldata_from_python!C12,alldata_from_python!H12,alldata_from_python!M12,alldata_from_python!R12,alldata_from_python!W12),2)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D10">
+        <f>ROUND(AVERAGE(alldata_from_python!D12,alldata_from_python!I12,alldata_from_python!N12,alldata_from_python!S12,alldata_from_python!X12),2)</f>
+        <v>44919.16</v>
+      </c>
+      <c r="E10">
+        <f>ROUND(AVERAGE(alldata_from_python!E12,alldata_from_python!J12,alldata_from_python!O12,alldata_from_python!T12,alldata_from_python!Y12),2)</f>
+        <v>435.26</v>
+      </c>
+      <c r="F10" s="24">
+        <v>8.6827219641917711E-2</v>
+      </c>
+      <c r="G10">
+        <f>ROUND(AVERAGE(alldata_from_python!F12,alldata_from_python!K12,alldata_from_python!P12,alldata_from_python!U12,alldata_from_python!Z12),2)</f>
+        <v>619.29</v>
+      </c>
+      <c r="H10">
+        <f>ROUND(AVERAGE(alldata_from_python!G12,alldata_from_python!L12,alldata_from_python!Q12,alldata_from_python!V12,alldata_from_python!AA12),2)</f>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <f>ROUND(AVERAGE(alldata_from_python!C22,alldata_from_python!H22,alldata_from_python!M22,alldata_from_python!R22,alldata_from_python!W22),2)</f>
+        <v>7.59</v>
+      </c>
+      <c r="D11">
+        <f>ROUND(AVERAGE(alldata_from_python!D22,alldata_from_python!I22,alldata_from_python!N22,alldata_from_python!S22,alldata_from_python!X22),2)</f>
+        <v>57947.6</v>
+      </c>
+      <c r="E11">
+        <f>ROUND(AVERAGE(alldata_from_python!E22,alldata_from_python!J22,alldata_from_python!O22,alldata_from_python!T22,alldata_from_python!Y22),2)</f>
+        <v>435.13</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.12109390349572179</v>
+      </c>
+      <c r="G11">
+        <f>ROUND(AVERAGE(alldata_from_python!F22,alldata_from_python!K22,alldata_from_python!P22,alldata_from_python!U22,alldata_from_python!Z22),2)</f>
+        <v>641.98</v>
+      </c>
+      <c r="H11">
+        <f>ROUND(AVERAGE(alldata_from_python!G22,alldata_from_python!L22,alldata_from_python!Q22,alldata_from_python!V22,alldata_from_python!AA22),2)</f>
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <f>ROUND(AVERAGE(alldata_from_python!C20,alldata_from_python!H20,alldata_from_python!M20,alldata_from_python!R20,alldata_from_python!W20),2)</f>
+        <v>7.28</v>
+      </c>
+      <c r="D12">
+        <f>ROUND(AVERAGE(alldata_from_python!D20,alldata_from_python!I20,alldata_from_python!N20,alldata_from_python!S20,alldata_from_python!X20),2)</f>
+        <v>59786.5</v>
+      </c>
+      <c r="E12">
+        <f>ROUND(AVERAGE(alldata_from_python!E20,alldata_from_python!J20,alldata_from_python!O20,alldata_from_python!T20,alldata_from_python!Y20),2)</f>
+        <v>434.36</v>
+      </c>
+      <c r="F12" s="24">
+        <v>-2.4799271911885763E-2</v>
+      </c>
+      <c r="G12">
+        <f>ROUND(AVERAGE(alldata_from_python!F20,alldata_from_python!K20,alldata_from_python!P20,alldata_from_python!U20,alldata_from_python!Z20),2)</f>
+        <v>638.83000000000004</v>
+      </c>
+      <c r="H12">
+        <f>ROUND(AVERAGE(alldata_from_python!G20,alldata_from_python!L20,alldata_from_python!Q20,alldata_from_python!V20,alldata_from_python!AA20),2)</f>
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <f>ROUND(AVERAGE(alldata_from_python!C21,alldata_from_python!H21,alldata_from_python!M21,alldata_from_python!R21,alldata_from_python!W21),2)</f>
+        <v>8.41</v>
+      </c>
+      <c r="D13">
+        <f>ROUND(AVERAGE(alldata_from_python!D21,alldata_from_python!I21,alldata_from_python!N21,alldata_from_python!S21,alldata_from_python!X21),2)</f>
+        <v>14204</v>
+      </c>
+      <c r="E13">
+        <f>ROUND(AVERAGE(alldata_from_python!E21,alldata_from_python!J21,alldata_from_python!O21,alldata_from_python!T21,alldata_from_python!Y21),2)</f>
+        <v>118.02</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1.6685607956257426E-2</v>
+      </c>
+      <c r="G13">
+        <f>ROUND(AVERAGE(alldata_from_python!F21,alldata_from_python!K21,alldata_from_python!P21,alldata_from_python!U21,alldata_from_python!Z21),2)</f>
+        <v>566.13</v>
+      </c>
+      <c r="H13">
+        <f>ROUND(AVERAGE(alldata_from_python!G21,alldata_from_python!L21,alldata_from_python!Q21,alldata_from_python!V21,alldata_from_python!AA21),2)</f>
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <f>ROUND(AVERAGE(alldata_from_python!C10,alldata_from_python!H10,alldata_from_python!M10,alldata_from_python!R10,alldata_from_python!W10),2)</f>
+        <v>10.06</v>
+      </c>
+      <c r="D14">
+        <f>ROUND(AVERAGE(alldata_from_python!D10,alldata_from_python!I10,alldata_from_python!N10,alldata_from_python!S10,alldata_from_python!X10),2)</f>
+        <v>8710.08</v>
+      </c>
+      <c r="E14">
+        <f>ROUND(AVERAGE(alldata_from_python!E10,alldata_from_python!J10,alldata_from_python!O10,alldata_from_python!T10,alldata_from_python!Y10),2)</f>
+        <v>79.819999999999993</v>
+      </c>
+      <c r="F14" s="24">
+        <v>-0.17834898381746309</v>
+      </c>
+      <c r="G14">
+        <f>ROUND(AVERAGE(alldata_from_python!F10,alldata_from_python!K10,alldata_from_python!P10,alldata_from_python!U10,alldata_from_python!Z10),2)</f>
+        <v>509.48</v>
+      </c>
+      <c r="H14">
+        <f>ROUND(AVERAGE(alldata_from_python!G10,alldata_from_python!L10,alldata_from_python!Q10,alldata_from_python!V10,alldata_from_python!AA10),2)</f>
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f>ROUND(AVERAGE(alldata_from_python!C11,alldata_from_python!H11,alldata_from_python!M11,alldata_from_python!R11,alldata_from_python!W11),2)</f>
+        <v>10.74</v>
+      </c>
+      <c r="D15">
+        <f>ROUND(AVERAGE(alldata_from_python!D11,alldata_from_python!I11,alldata_from_python!N11,alldata_from_python!S11,alldata_from_python!X11),2)</f>
+        <v>4006</v>
+      </c>
+      <c r="E15">
+        <f>ROUND(AVERAGE(alldata_from_python!E11,alldata_from_python!J11,alldata_from_python!O11,alldata_from_python!T11,alldata_from_python!Y11),2)</f>
+        <v>44.04</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0.36399737239702562</v>
+      </c>
+      <c r="G15">
+        <f>ROUND(AVERAGE(alldata_from_python!F11,alldata_from_python!K11,alldata_from_python!P11,alldata_from_python!U11,alldata_from_python!Z11),2)</f>
+        <v>578.80999999999995</v>
+      </c>
+      <c r="H15">
+        <f>ROUND(AVERAGE(alldata_from_python!G11,alldata_from_python!L11,alldata_from_python!Q11,alldata_from_python!V11,alldata_from_python!AA11),2)</f>
+        <v>11.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <f>ROUND(AVERAGE(alldata_from_python!C7,alldata_from_python!H7,alldata_from_python!M7,alldata_from_python!R7,alldata_from_python!W7),2)</f>
+        <v>7.57</v>
+      </c>
+      <c r="D16">
+        <f>ROUND(AVERAGE(alldata_from_python!D7,alldata_from_python!I7,alldata_from_python!N7,alldata_from_python!S7,alldata_from_python!X7),2)</f>
+        <v>3408.69</v>
+      </c>
+      <c r="E16">
+        <f>ROUND(AVERAGE(alldata_from_python!E7,alldata_from_python!J7,alldata_from_python!O7,alldata_from_python!T7,alldata_from_python!Y7),2)</f>
+        <v>25.06</v>
+      </c>
+      <c r="F16" s="24">
+        <v>-0.23016387952640222</v>
+      </c>
+      <c r="G16">
+        <f>ROUND(AVERAGE(alldata_from_python!F7,alldata_from_python!K7,alldata_from_python!P7,alldata_from_python!U7,alldata_from_python!Z7),2)</f>
+        <v>728.22</v>
+      </c>
+      <c r="H16">
+        <f>ROUND(AVERAGE(alldata_from_python!G7,alldata_from_python!L7,alldata_from_python!Q7,alldata_from_python!V7,alldata_from_python!AA7),2)</f>
+        <v>20.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <f>ROUND(AVERAGE(alldata_from_python!C18,alldata_from_python!H18,alldata_from_python!M18,alldata_from_python!R18,alldata_from_python!W18),2)</f>
+        <v>10.15</v>
+      </c>
+      <c r="D17">
+        <f>ROUND(AVERAGE(alldata_from_python!D18,alldata_from_python!I18,alldata_from_python!N18,alldata_from_python!S18,alldata_from_python!X18),2)</f>
+        <v>1491.46</v>
+      </c>
+      <c r="E17">
+        <f>ROUND(AVERAGE(alldata_from_python!E18,alldata_from_python!J18,alldata_from_python!O18,alldata_from_python!T18,alldata_from_python!Y18),2)</f>
+        <v>14.58</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1.3635113086575255</v>
+      </c>
+      <c r="G17">
+        <f>ROUND(AVERAGE(alldata_from_python!F18,alldata_from_python!K18,alldata_from_python!P18,alldata_from_python!U18,alldata_from_python!Z18),2)</f>
+        <v>457.19</v>
+      </c>
+      <c r="H17">
+        <f>ROUND(AVERAGE(alldata_from_python!G18,alldata_from_python!L18,alldata_from_python!Q18,alldata_from_python!V18,alldata_from_python!AA18),2)</f>
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <f>ROUND(AVERAGE(alldata_from_python!C23,alldata_from_python!H23,alldata_from_python!M23,alldata_from_python!R23,alldata_from_python!W23),2)</f>
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="D18">
+        <f>ROUND(AVERAGE(alldata_from_python!D23,alldata_from_python!I23,alldata_from_python!N23,alldata_from_python!S23,alldata_from_python!X23),2)</f>
+        <v>1226.77</v>
+      </c>
+      <c r="E18">
+        <f>ROUND(AVERAGE(alldata_from_python!E23,alldata_from_python!J23,alldata_from_python!O23,alldata_from_python!T23,alldata_from_python!Y23),2)</f>
+        <v>10.76</v>
+      </c>
+      <c r="F18" s="24">
+        <v>7.3742461873065365E-2</v>
+      </c>
+      <c r="G18">
+        <f>ROUND(AVERAGE(alldata_from_python!F23,alldata_from_python!K23,alldata_from_python!P23,alldata_from_python!U23,alldata_from_python!Z23),2)</f>
+        <v>520.07000000000005</v>
+      </c>
+      <c r="H18">
+        <f>ROUND(AVERAGE(alldata_from_python!G23,alldata_from_python!L23,alldata_from_python!Q23,alldata_from_python!V23,alldata_from_python!AA23),2)</f>
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <f>ROUND(AVERAGE(alldata_from_python!C14,alldata_from_python!H14,alldata_from_python!M14,alldata_from_python!R14,alldata_from_python!W14),2)</f>
+        <v>7.75</v>
+      </c>
+      <c r="D19">
+        <f>ROUND(AVERAGE(alldata_from_python!D14,alldata_from_python!I14,alldata_from_python!N14,alldata_from_python!S14,alldata_from_python!X14),2)</f>
+        <v>794.8</v>
+      </c>
+      <c r="E19">
+        <f>ROUND(AVERAGE(alldata_from_python!E14,alldata_from_python!J14,alldata_from_python!O14,alldata_from_python!T14,alldata_from_python!Y14),2)</f>
+        <v>5.57</v>
+      </c>
+      <c r="F19" s="24">
+        <v>-0.24492318705729496</v>
+      </c>
+      <c r="G19">
+        <f>ROUND(AVERAGE(alldata_from_python!F14,alldata_from_python!K14,alldata_from_python!P14,alldata_from_python!U14,alldata_from_python!Z14),2)</f>
+        <v>588.04999999999995</v>
+      </c>
+      <c r="H19">
+        <f>ROUND(AVERAGE(alldata_from_python!G14,alldata_from_python!L14,alldata_from_python!Q14,alldata_from_python!V14,alldata_from_python!AA14),2)</f>
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f>ROUND(AVERAGE(alldata_from_python!C24,alldata_from_python!H24,alldata_from_python!M24,alldata_from_python!R24,alldata_from_python!W24),2)</f>
+        <v>5.92</v>
+      </c>
+      <c r="D20">
+        <f>ROUND(AVERAGE(alldata_from_python!D24,alldata_from_python!I24,alldata_from_python!N24,alldata_from_python!S24,alldata_from_python!X24),2)</f>
+        <v>3399215.41</v>
+      </c>
+      <c r="E20">
+        <f>ROUND(AVERAGE(alldata_from_python!E24,alldata_from_python!J24,alldata_from_python!O24,alldata_from_python!T24,alldata_from_python!Y24),2)</f>
+        <v>20029.93</v>
+      </c>
+      <c r="F20" s="24">
+        <v>4.0164338953416263E-2</v>
+      </c>
+      <c r="G20">
+        <f>ROUND(AVERAGE(alldata_from_python!F24,alldata_from_python!K24,alldata_from_python!P24,alldata_from_python!U24,alldata_from_python!Z24),2)</f>
+        <v>848.81</v>
+      </c>
+      <c r="H20">
+        <f>ROUND(AVERAGE(alldata_from_python!G24,alldata_from_python!L24,alldata_from_python!Q24,alldata_from_python!V24,alldata_from_python!AA24),2)</f>
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <f>ROUND(AVERAGE(alldata_from_python!C34,alldata_from_python!H34,alldata_from_python!M34,alldata_from_python!R34,alldata_from_python!W34),2)</f>
+        <v>5.84</v>
+      </c>
+      <c r="D21">
+        <f>ROUND(AVERAGE(alldata_from_python!D34,alldata_from_python!I34,alldata_from_python!N34,alldata_from_python!S34,alldata_from_python!X34),2)</f>
+        <v>615746.43999999994</v>
+      </c>
+      <c r="E21">
+        <f>ROUND(AVERAGE(alldata_from_python!E34,alldata_from_python!J34,alldata_from_python!O34,alldata_from_python!T34,alldata_from_python!Y34),2)</f>
+        <v>3580.49</v>
+      </c>
+      <c r="F21" s="24">
+        <v>4.4487811884831849E-2</v>
+      </c>
+      <c r="G21">
+        <f>ROUND(AVERAGE(alldata_from_python!F34,alldata_from_python!K34,alldata_from_python!P34,alldata_from_python!U34,alldata_from_python!Z34),2)</f>
+        <v>834.07</v>
+      </c>
+      <c r="H21">
+        <f>ROUND(AVERAGE(alldata_from_python!G34,alldata_from_python!L34,alldata_from_python!Q34,alldata_from_python!V34,alldata_from_python!AA34),2)</f>
+        <v>19.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <f>ROUND(AVERAGE(alldata_from_python!C28,alldata_from_python!H28,alldata_from_python!M28,alldata_from_python!R28,alldata_from_python!W28),2)</f>
+        <v>5.9</v>
+      </c>
+      <c r="D22">
+        <f>ROUND(AVERAGE(alldata_from_python!D28,alldata_from_python!I28,alldata_from_python!N28,alldata_from_python!S28,alldata_from_python!X28),2)</f>
+        <v>438403.22</v>
+      </c>
+      <c r="E22">
+        <f>ROUND(AVERAGE(alldata_from_python!E28,alldata_from_python!J28,alldata_from_python!O28,alldata_from_python!T28,alldata_from_python!Y28),2)</f>
+        <v>2562.9299999999998</v>
+      </c>
+      <c r="F22" s="24">
+        <v>-4.1813584266171912E-2</v>
+      </c>
+      <c r="G22">
+        <f>ROUND(AVERAGE(alldata_from_python!F28,alldata_from_python!K28,alldata_from_python!P28,alldata_from_python!U28,alldata_from_python!Z28),2)</f>
+        <v>796.96</v>
+      </c>
+      <c r="H22">
+        <f>ROUND(AVERAGE(alldata_from_python!G28,alldata_from_python!L28,alldata_from_python!Q28,alldata_from_python!V28,alldata_from_python!AA28),2)</f>
+        <v>17.989999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <f>ROUND(AVERAGE(alldata_from_python!C30,alldata_from_python!H30,alldata_from_python!M30,alldata_from_python!R30,alldata_from_python!W30),2)</f>
+        <v>6.15</v>
+      </c>
+      <c r="D23">
+        <f>ROUND(AVERAGE(alldata_from_python!D30,alldata_from_python!I30,alldata_from_python!N30,alldata_from_python!S30,alldata_from_python!X30),2)</f>
+        <v>336483.9</v>
+      </c>
+      <c r="E23">
+        <f>ROUND(AVERAGE(alldata_from_python!E30,alldata_from_python!J30,alldata_from_python!O30,alldata_from_python!T30,alldata_from_python!Y30),2)</f>
+        <v>2044.71</v>
+      </c>
+      <c r="F23" s="24">
+        <v>-1.5866745008607942E-2</v>
+      </c>
+      <c r="G23">
+        <f>ROUND(AVERAGE(alldata_from_python!F30,alldata_from_python!K30,alldata_from_python!P30,alldata_from_python!U30,alldata_from_python!Z30),2)</f>
+        <v>714.12</v>
+      </c>
+      <c r="H23">
+        <f>ROUND(AVERAGE(alldata_from_python!G30,alldata_from_python!L30,alldata_from_python!Q30,alldata_from_python!V30,alldata_from_python!AA30),2)</f>
+        <v>15.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f>ROUND(AVERAGE(alldata_from_python!C29,alldata_from_python!H29,alldata_from_python!M29,alldata_from_python!R29,alldata_from_python!W29),2)</f>
+        <v>6.63</v>
+      </c>
+      <c r="D24">
+        <f>ROUND(AVERAGE(alldata_from_python!D29,alldata_from_python!I29,alldata_from_python!N29,alldata_from_python!S29,alldata_from_python!X29),2)</f>
+        <v>302179.42</v>
+      </c>
+      <c r="E24">
+        <f>ROUND(AVERAGE(alldata_from_python!E29,alldata_from_python!J29,alldata_from_python!O29,alldata_from_python!T29,alldata_from_python!Y29),2)</f>
+        <v>2016.87</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0.18227953471882696</v>
+      </c>
+      <c r="G24">
+        <f>ROUND(AVERAGE(alldata_from_python!F29,alldata_from_python!K29,alldata_from_python!P29,alldata_from_python!U29,alldata_from_python!Z29),2)</f>
+        <v>1041.3900000000001</v>
+      </c>
+      <c r="H24">
+        <f>ROUND(AVERAGE(alldata_from_python!G29,alldata_from_python!L29,alldata_from_python!Q29,alldata_from_python!V29,alldata_from_python!AA29),2)</f>
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <f>ROUND(AVERAGE(alldata_from_python!C26,alldata_from_python!H26,alldata_from_python!M26,alldata_from_python!R26,alldata_from_python!W26),2)</f>
+        <v>5.16</v>
+      </c>
+      <c r="D25">
+        <f>ROUND(AVERAGE(alldata_from_python!D26,alldata_from_python!I26,alldata_from_python!N26,alldata_from_python!S26,alldata_from_python!X26),2)</f>
+        <v>285392.83</v>
+      </c>
+      <c r="E25">
+        <f>ROUND(AVERAGE(alldata_from_python!E26,alldata_from_python!J26,alldata_from_python!O26,alldata_from_python!T26,alldata_from_python!Y26),2)</f>
+        <v>1423.51</v>
+      </c>
+      <c r="F25" s="24">
+        <v>2.7967628147624025E-2</v>
+      </c>
+      <c r="G25">
+        <f>ROUND(AVERAGE(alldata_from_python!F26,alldata_from_python!K26,alldata_from_python!P26,alldata_from_python!U26,alldata_from_python!Z26),2)</f>
+        <v>893.42</v>
+      </c>
+      <c r="H25">
+        <f>ROUND(AVERAGE(alldata_from_python!G26,alldata_from_python!L26,alldata_from_python!Q26,alldata_from_python!V26,alldata_from_python!AA26),2)</f>
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f>ROUND(AVERAGE(alldata_from_python!C35,alldata_from_python!H35,alldata_from_python!M35,alldata_from_python!R35,alldata_from_python!W35),2)</f>
+        <v>6.06</v>
+      </c>
+      <c r="D26">
+        <f>ROUND(AVERAGE(alldata_from_python!D35,alldata_from_python!I35,alldata_from_python!N35,alldata_from_python!S35,alldata_from_python!X35),2)</f>
+        <v>217350.98</v>
+      </c>
+      <c r="E26">
+        <f>ROUND(AVERAGE(alldata_from_python!E35,alldata_from_python!J35,alldata_from_python!O35,alldata_from_python!T35,alldata_from_python!Y35),2)</f>
+        <v>1314.67</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.14614842458389748</v>
+      </c>
+      <c r="G26">
+        <f>ROUND(AVERAGE(alldata_from_python!F35,alldata_from_python!K35,alldata_from_python!P35,alldata_from_python!U35,alldata_from_python!Z35),2)</f>
+        <v>838.37</v>
+      </c>
+      <c r="H26">
+        <f>ROUND(AVERAGE(alldata_from_python!G35,alldata_from_python!L35,alldata_from_python!Q35,alldata_from_python!V35,alldata_from_python!AA35),2)</f>
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <f>ROUND(AVERAGE(alldata_from_python!C33,alldata_from_python!H33,alldata_from_python!M33,alldata_from_python!R33,alldata_from_python!W33),2)</f>
+        <v>6.25</v>
+      </c>
+      <c r="D27">
+        <f>ROUND(AVERAGE(alldata_from_python!D33,alldata_from_python!I33,alldata_from_python!N33,alldata_from_python!S33,alldata_from_python!X33),2)</f>
+        <v>198753.08</v>
+      </c>
+      <c r="E27">
+        <f>ROUND(AVERAGE(alldata_from_python!E33,alldata_from_python!J33,alldata_from_python!O33,alldata_from_python!T33,alldata_from_python!Y33),2)</f>
+        <v>1248.26</v>
+      </c>
+      <c r="F27" s="24">
+        <v>6.415105668110771E-2</v>
+      </c>
+      <c r="G27">
+        <f>ROUND(AVERAGE(alldata_from_python!F33,alldata_from_python!K33,alldata_from_python!P33,alldata_from_python!U33,alldata_from_python!Z33),2)</f>
+        <v>854.8</v>
+      </c>
+      <c r="H27">
+        <f>ROUND(AVERAGE(alldata_from_python!G33,alldata_from_python!L33,alldata_from_python!Q33,alldata_from_python!V33,alldata_from_python!AA33),2)</f>
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <f>ROUND(AVERAGE(alldata_from_python!C27,alldata_from_python!H27,alldata_from_python!M27,alldata_from_python!R27,alldata_from_python!W27),2)</f>
+        <v>5.7</v>
+      </c>
+      <c r="D28">
+        <f>ROUND(AVERAGE(alldata_from_python!D27,alldata_from_python!I27,alldata_from_python!N27,alldata_from_python!S27,alldata_from_python!X27),2)</f>
+        <v>174319.01</v>
+      </c>
+      <c r="E28">
+        <f>ROUND(AVERAGE(alldata_from_python!E27,alldata_from_python!J27,alldata_from_python!O27,alldata_from_python!T27,alldata_from_python!Y27),2)</f>
+        <v>991.62</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.42855140983899009</v>
+      </c>
+      <c r="G28">
+        <f>ROUND(AVERAGE(alldata_from_python!F27,alldata_from_python!K27,alldata_from_python!P27,alldata_from_python!U27,alldata_from_python!Z27),2)</f>
+        <v>839.39</v>
+      </c>
+      <c r="H28">
+        <f>ROUND(AVERAGE(alldata_from_python!G27,alldata_from_python!L27,alldata_from_python!Q27,alldata_from_python!V27,alldata_from_python!AA27),2)</f>
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <f>ROUND(AVERAGE(alldata_from_python!C37,alldata_from_python!H37,alldata_from_python!M37,alldata_from_python!R37,alldata_from_python!W37),2)</f>
+        <v>5.76</v>
+      </c>
+      <c r="D29">
+        <f>ROUND(AVERAGE(alldata_from_python!D37,alldata_from_python!I37,alldata_from_python!N37,alldata_from_python!S37,alldata_from_python!X37),2)</f>
+        <v>163518.19</v>
+      </c>
+      <c r="E29">
+        <f>ROUND(AVERAGE(alldata_from_python!E37,alldata_from_python!J37,alldata_from_python!O37,alldata_from_python!T37,alldata_from_python!Y37),2)</f>
+        <v>943.19</v>
+      </c>
+      <c r="F29" s="24">
+        <v>5.5859377117548764E-2</v>
+      </c>
+      <c r="G29">
+        <f>ROUND(AVERAGE(alldata_from_python!F37,alldata_from_python!K37,alldata_from_python!P37,alldata_from_python!U37,alldata_from_python!Z37),2)</f>
+        <v>914.04</v>
+      </c>
+      <c r="H29">
+        <f>ROUND(AVERAGE(alldata_from_python!G37,alldata_from_python!L37,alldata_from_python!Q37,alldata_from_python!V37,alldata_from_python!AA37),2)</f>
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <f>ROUND(AVERAGE(alldata_from_python!C31,alldata_from_python!H31,alldata_from_python!M31,alldata_from_python!R31,alldata_from_python!W31),2)</f>
+        <v>5.15</v>
+      </c>
+      <c r="D30">
+        <f>ROUND(AVERAGE(alldata_from_python!D31,alldata_from_python!I31,alldata_from_python!N31,alldata_from_python!S31,alldata_from_python!X31),2)</f>
+        <v>164685.4</v>
+      </c>
+      <c r="E30">
+        <f>ROUND(AVERAGE(alldata_from_python!E31,alldata_from_python!J31,alldata_from_python!O31,alldata_from_python!T31,alldata_from_python!Y31),2)</f>
+        <v>827.65</v>
+      </c>
+      <c r="F30" s="24">
+        <v>-6.1173632097056334E-2</v>
+      </c>
+      <c r="G30">
+        <f>ROUND(AVERAGE(alldata_from_python!F31,alldata_from_python!K31,alldata_from_python!P31,alldata_from_python!U31,alldata_from_python!Z31),2)</f>
+        <v>875.6</v>
+      </c>
+      <c r="H30">
+        <f>ROUND(AVERAGE(alldata_from_python!G31,alldata_from_python!L31,alldata_from_python!Q31,alldata_from_python!V31,alldata_from_python!AA31),2)</f>
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <f>ROUND(AVERAGE(alldata_from_python!C40,alldata_from_python!H40,alldata_from_python!M40,alldata_from_python!R40,alldata_from_python!W40),2)</f>
+        <v>5.36</v>
+      </c>
+      <c r="D31">
+        <f>ROUND(AVERAGE(alldata_from_python!D40,alldata_from_python!I40,alldata_from_python!N40,alldata_from_python!S40,alldata_from_python!X40),2)</f>
+        <v>141289.22</v>
+      </c>
+      <c r="E31">
+        <f>ROUND(AVERAGE(alldata_from_python!E40,alldata_from_python!J40,alldata_from_python!O40,alldata_from_python!T40,alldata_from_python!Y40),2)</f>
+        <v>755.21</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0.24603197154484968</v>
+      </c>
+      <c r="G31">
+        <f>ROUND(AVERAGE(alldata_from_python!F40,alldata_from_python!K40,alldata_from_python!P40,alldata_from_python!U40,alldata_from_python!Z40),2)</f>
+        <v>869.68</v>
+      </c>
+      <c r="H31">
+        <f>ROUND(AVERAGE(alldata_from_python!G40,alldata_from_python!L40,alldata_from_python!Q40,alldata_from_python!V40,alldata_from_python!AA40),2)</f>
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <f>ROUND(AVERAGE(alldata_from_python!C41,alldata_from_python!H41,alldata_from_python!M41,alldata_from_python!R41,alldata_from_python!W41),2)</f>
+        <v>6.91</v>
+      </c>
+      <c r="D32">
+        <f>ROUND(AVERAGE(alldata_from_python!D41,alldata_from_python!I41,alldata_from_python!N41,alldata_from_python!S41,alldata_from_python!X41),2)</f>
+        <v>95668.34</v>
+      </c>
+      <c r="E32">
+        <f>ROUND(AVERAGE(alldata_from_python!E41,alldata_from_python!J41,alldata_from_python!O41,alldata_from_python!T41,alldata_from_python!Y41),2)</f>
+        <v>655.89</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1.2604389338769412E-2</v>
+      </c>
+      <c r="G32">
+        <f>ROUND(AVERAGE(alldata_from_python!F41,alldata_from_python!K41,alldata_from_python!P41,alldata_from_python!U41,alldata_from_python!Z41),2)</f>
+        <v>925.75</v>
+      </c>
+      <c r="H32">
+        <f>ROUND(AVERAGE(alldata_from_python!G41,alldata_from_python!L41,alldata_from_python!Q41,alldata_from_python!V41,alldata_from_python!AA41),2)</f>
+        <v>11.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <f>ROUND(AVERAGE(alldata_from_python!C25,alldata_from_python!H25,alldata_from_python!M25,alldata_from_python!R25,alldata_from_python!W25),2)</f>
+        <v>6.39</v>
+      </c>
+      <c r="D33">
+        <f>ROUND(AVERAGE(alldata_from_python!D25,alldata_from_python!I25,alldata_from_python!N25,alldata_from_python!S25,alldata_from_python!X25),2)</f>
+        <v>70003.509999999995</v>
+      </c>
+      <c r="E33">
+        <f>ROUND(AVERAGE(alldata_from_python!E25,alldata_from_python!J25,alldata_from_python!O25,alldata_from_python!T25,alldata_from_python!Y25),2)</f>
+        <v>469.63</v>
+      </c>
+      <c r="F33" s="24">
+        <v>1.1413817516321421</v>
+      </c>
+      <c r="G33">
+        <f>ROUND(AVERAGE(alldata_from_python!F25,alldata_from_python!K25,alldata_from_python!P25,alldata_from_python!U25,alldata_from_python!Z25),2)</f>
+        <v>1252.33</v>
+      </c>
+      <c r="H33">
+        <f>ROUND(AVERAGE(alldata_from_python!G25,alldata_from_python!L25,alldata_from_python!Q25,alldata_from_python!V25,alldata_from_python!AA25),2)</f>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <f>ROUND(AVERAGE(alldata_from_python!C36,alldata_from_python!H36,alldata_from_python!M36,alldata_from_python!R36,alldata_from_python!W36),2)</f>
+        <v>5.79</v>
+      </c>
+      <c r="D34">
+        <f>ROUND(AVERAGE(alldata_from_python!D36,alldata_from_python!I36,alldata_from_python!N36,alldata_from_python!S36,alldata_from_python!X36),2)</f>
+        <v>70430.100000000006</v>
+      </c>
+      <c r="E34">
+        <f>ROUND(AVERAGE(alldata_from_python!E36,alldata_from_python!J36,alldata_from_python!O36,alldata_from_python!T36,alldata_from_python!Y36),2)</f>
+        <v>414.04</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0.25345770047538463</v>
+      </c>
+      <c r="G34">
+        <f>ROUND(AVERAGE(alldata_from_python!F36,alldata_from_python!K36,alldata_from_python!P36,alldata_from_python!U36,alldata_from_python!Z36),2)</f>
+        <v>868.06</v>
+      </c>
+      <c r="H34">
+        <f>ROUND(AVERAGE(alldata_from_python!G36,alldata_from_python!L36,alldata_from_python!Q36,alldata_from_python!V36,alldata_from_python!AA36),2)</f>
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <f>ROUND(AVERAGE(alldata_from_python!C38,alldata_from_python!H38,alldata_from_python!M38,alldata_from_python!R38,alldata_from_python!W38),2)</f>
+        <v>5.98</v>
+      </c>
+      <c r="D35">
+        <f>ROUND(AVERAGE(alldata_from_python!D38,alldata_from_python!I38,alldata_from_python!N38,alldata_from_python!S38,alldata_from_python!X38),2)</f>
+        <v>49337.39</v>
+      </c>
+      <c r="E35">
+        <f>ROUND(AVERAGE(alldata_from_python!E38,alldata_from_python!J38,alldata_from_python!O38,alldata_from_python!T38,alldata_from_python!Y38),2)</f>
+        <v>293.8</v>
+      </c>
+      <c r="F35" s="24">
+        <v>5.3991381629275026E-2</v>
+      </c>
+      <c r="G35">
+        <f>ROUND(AVERAGE(alldata_from_python!F38,alldata_from_python!K38,alldata_from_python!P38,alldata_from_python!U38,alldata_from_python!Z38),2)</f>
+        <v>763.33</v>
+      </c>
+      <c r="H35">
+        <f>ROUND(AVERAGE(alldata_from_python!G38,alldata_from_python!L38,alldata_from_python!Q38,alldata_from_python!V38,alldata_from_python!AA38),2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <f>ROUND(AVERAGE(alldata_from_python!C39,alldata_from_python!H39,alldata_from_python!M39,alldata_from_python!R39,alldata_from_python!W39),2)</f>
+        <v>6.11</v>
+      </c>
+      <c r="D36">
+        <f>ROUND(AVERAGE(alldata_from_python!D39,alldata_from_python!I39,alldata_from_python!N39,alldata_from_python!S39,alldata_from_python!X39),2)</f>
+        <v>46202.84</v>
+      </c>
+      <c r="E36">
+        <f>ROUND(AVERAGE(alldata_from_python!E39,alldata_from_python!J39,alldata_from_python!O39,alldata_from_python!T39,alldata_from_python!Y39),2)</f>
+        <v>280.57</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0.14877392198547912</v>
+      </c>
+      <c r="G36">
+        <f>ROUND(AVERAGE(alldata_from_python!F39,alldata_from_python!K39,alldata_from_python!P39,alldata_from_python!U39,alldata_from_python!Z39),2)</f>
+        <v>709.05</v>
+      </c>
+      <c r="H36">
+        <f>ROUND(AVERAGE(alldata_from_python!G39,alldata_from_python!L39,alldata_from_python!Q39,alldata_from_python!V39,alldata_from_python!AA39),2)</f>
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <f>ROUND(AVERAGE(alldata_from_python!C32,alldata_from_python!H32,alldata_from_python!M32,alldata_from_python!R32,alldata_from_python!W32),2)</f>
+        <v>7.08</v>
+      </c>
+      <c r="D37">
+        <f>ROUND(AVERAGE(alldata_from_python!D32,alldata_from_python!I32,alldata_from_python!N32,alldata_from_python!S32,alldata_from_python!X32),2)</f>
+        <v>29451.54</v>
+      </c>
+      <c r="E37">
+        <f>ROUND(AVERAGE(alldata_from_python!E32,alldata_from_python!J32,alldata_from_python!O32,alldata_from_python!T32,alldata_from_python!Y32),2)</f>
+        <v>206.42</v>
+      </c>
+      <c r="F37" s="24">
+        <v>0.12168914207006035</v>
+      </c>
+      <c r="G37">
+        <f>ROUND(AVERAGE(alldata_from_python!F32,alldata_from_python!K32,alldata_from_python!P32,alldata_from_python!U32,alldata_from_python!Z32),2)</f>
+        <v>805.34</v>
+      </c>
+      <c r="H37">
+        <f>ROUND(AVERAGE(alldata_from_python!G32,alldata_from_python!L32,alldata_from_python!Q32,alldata_from_python!V32,alldata_from_python!AA32),2)</f>
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <f>ROUND(AVERAGE(alldata_from_python!C2,alldata_from_python!H2,alldata_from_python!M2,alldata_from_python!R2,alldata_from_python!W2),2)</f>
+        <v>10.71</v>
+      </c>
+      <c r="D38">
+        <f>ROUND(AVERAGE(alldata_from_python!D2,alldata_from_python!I2,alldata_from_python!N2,alldata_from_python!S2,alldata_from_python!X2),2)</f>
+        <v>393747.83</v>
+      </c>
+      <c r="E38">
+        <f>ROUND(AVERAGE(alldata_from_python!E2,alldata_from_python!J2,alldata_from_python!O2,alldata_from_python!T2,alldata_from_python!Y2),2)</f>
+        <v>4230.29</v>
+      </c>
+      <c r="F38" s="24">
+        <v>-9.5186631810465147E-3</v>
+      </c>
+      <c r="G38">
+        <f>ROUND(AVERAGE(alldata_from_python!F2,alldata_from_python!K2,alldata_from_python!P2,alldata_from_python!U2,alldata_from_python!Z2),2)</f>
+        <v>549.52</v>
+      </c>
+      <c r="H38">
+        <f>ROUND(AVERAGE(alldata_from_python!G2,alldata_from_python!L2,alldata_from_python!Q2,alldata_from_python!V2,alldata_from_python!AA2),2)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <f>ROUND(AVERAGE(alldata_from_python!C5,alldata_from_python!H5,alldata_from_python!M5,alldata_from_python!R5,alldata_from_python!W5),2)</f>
+        <v>11.11</v>
+      </c>
+      <c r="D39">
+        <f>ROUND(AVERAGE(alldata_from_python!D5,alldata_from_python!I5,alldata_from_python!N5,alldata_from_python!S5,alldata_from_python!X5),2)</f>
+        <v>200721.8</v>
+      </c>
+      <c r="E39">
+        <f>ROUND(AVERAGE(alldata_from_python!E5,alldata_from_python!J5,alldata_from_python!O5,alldata_from_python!T5,alldata_from_python!Y5),2)</f>
+        <v>2218.5300000000002</v>
+      </c>
+      <c r="F39" s="24">
+        <v>7.0185830475224059E-2</v>
+      </c>
+      <c r="G39">
+        <f>ROUND(AVERAGE(alldata_from_python!F5,alldata_from_python!K5,alldata_from_python!P5,alldata_from_python!U5,alldata_from_python!Z5),2)</f>
+        <v>543.32000000000005</v>
+      </c>
+      <c r="H39">
+        <f>ROUND(AVERAGE(alldata_from_python!G5,alldata_from_python!L5,alldata_from_python!Q5,alldata_from_python!V5,alldata_from_python!AA5),2)</f>
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <f>ROUND(AVERAGE(alldata_from_python!C3,alldata_from_python!H3,alldata_from_python!M3,alldata_from_python!R3,alldata_from_python!W3),2)</f>
+        <v>10.25</v>
+      </c>
+      <c r="D40">
+        <f>ROUND(AVERAGE(alldata_from_python!D3,alldata_from_python!I3,alldata_from_python!N3,alldata_from_python!S3,alldata_from_python!X3),2)</f>
+        <v>185130.19</v>
+      </c>
+      <c r="E40">
+        <f>ROUND(AVERAGE(alldata_from_python!E3,alldata_from_python!J3,alldata_from_python!O3,alldata_from_python!T3,alldata_from_python!Y3),2)</f>
+        <v>1922.73</v>
+      </c>
+      <c r="F40" s="24">
+        <v>-8.3405664818412023E-2</v>
+      </c>
+      <c r="G40">
+        <f>ROUND(AVERAGE(alldata_from_python!F3,alldata_from_python!K3,alldata_from_python!P3,alldata_from_python!U3,alldata_from_python!Z3),2)</f>
+        <v>549.79999999999995</v>
+      </c>
+      <c r="H40">
+        <f>ROUND(AVERAGE(alldata_from_python!G3,alldata_from_python!L3,alldata_from_python!Q3,alldata_from_python!V3,alldata_from_python!AA3),2)</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <f>ROUND(AVERAGE(alldata_from_python!C4,alldata_from_python!H4,alldata_from_python!M4,alldata_from_python!R4,alldata_from_python!W4),2)</f>
+        <v>10.92</v>
+      </c>
+      <c r="D41">
+        <f>ROUND(AVERAGE(alldata_from_python!D4,alldata_from_python!I4,alldata_from_python!N4,alldata_from_python!S4,alldata_from_python!X4),2)</f>
+        <v>7895.84</v>
+      </c>
+      <c r="E41">
+        <f>ROUND(AVERAGE(alldata_from_python!E4,alldata_from_python!J4,alldata_from_python!O4,alldata_from_python!T4,alldata_from_python!Y4),2)</f>
+        <v>88.71</v>
+      </c>
+      <c r="F41" s="24">
+        <v>0.35026031168979133</v>
+      </c>
+      <c r="G41">
+        <f>ROUND(AVERAGE(alldata_from_python!F4,alldata_from_python!K4,alldata_from_python!P4,alldata_from_python!U4,alldata_from_python!Z4),2)</f>
+        <v>615.79</v>
+      </c>
+      <c r="H41">
+        <f>ROUND(AVERAGE(alldata_from_python!G4,alldata_from_python!L4,alldata_from_python!Q4,alldata_from_python!V4,alldata_from_python!AA4),2)</f>
+        <v>5.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
+    <sortCondition ref="A1:A42"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5897,25 +8181,27 @@
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="15.09765625" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.796875" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" customWidth="1"/>
+    <col min="6" max="7" width="11.796875" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" customWidth="1"/>
+    <col min="9" max="9" width="15.296875" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="2:8" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="2:9" s="2" customFormat="1" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -5932,13 +8218,16 @@
         <v>39</v>
       </c>
       <c r="G3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="I3" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -5948,20 +8237,23 @@
       <c r="D4" s="4">
         <v>10.71</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="31">
         <v>393747.83</v>
       </c>
-      <c r="F4" s="4">
-        <v>3542.27</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="31">
+        <v>4230.29</v>
+      </c>
+      <c r="G4" s="25">
+        <v>-9.5186631810465147E-3</v>
+      </c>
+      <c r="H4" s="31">
         <v>549.52</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
@@ -5971,20 +8263,23 @@
       <c r="D5" s="7">
         <v>11.11</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="32">
         <v>200721.8</v>
       </c>
-      <c r="F5" s="7">
-        <v>1765.69</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="32">
+        <v>2218.5300000000002</v>
+      </c>
+      <c r="G5" s="26">
+        <v>7.0185830475224059E-2</v>
+      </c>
+      <c r="H5" s="32">
         <v>543.32000000000005</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>9.43</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
@@ -5994,20 +8289,23 @@
       <c r="D6" s="10">
         <v>10.25</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="33">
         <v>185130.19</v>
       </c>
-      <c r="F6" s="10">
-        <v>1706.39</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="33">
+        <v>1922.73</v>
+      </c>
+      <c r="G6" s="27">
+        <v>-8.3405664818412023E-2</v>
+      </c>
+      <c r="H6" s="33">
         <v>549.79999999999995</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I6" s="11">
         <v>9.1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
@@ -6017,20 +8315,23 @@
       <c r="D7" s="13">
         <v>8.15</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="34">
         <v>1502032.96</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="34">
         <v>12214.2</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="28">
+        <v>1.0067110852902452E-2</v>
+      </c>
+      <c r="H7" s="34">
         <v>625.66</v>
       </c>
-      <c r="H7" s="14">
+      <c r="I7" s="14">
         <v>6.24</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -6040,20 +8341,23 @@
       <c r="D8" s="7">
         <v>7.91</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="32">
         <v>444469.12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="32">
         <v>3512.03</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="26">
+        <v>5.3055407904619614E-2</v>
+      </c>
+      <c r="H8" s="32">
         <v>656.4</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>7.83</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
@@ -6063,20 +8367,23 @@
       <c r="D9" s="7">
         <v>7.53</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="32">
         <v>214560.55</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="32">
         <v>1612.63</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="26">
+        <v>-1.6364874379347024E-2</v>
+      </c>
+      <c r="H9" s="32">
         <v>687.83</v>
       </c>
-      <c r="H9" s="8">
+      <c r="I9" s="8">
         <v>6.7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
@@ -6086,20 +8393,23 @@
       <c r="D10" s="7">
         <v>8.26</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="32">
         <v>188590.48</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="32">
         <v>1562.64</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="26">
+        <v>-3.240700883665764E-2</v>
+      </c>
+      <c r="H10" s="32">
         <v>578.03</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>4.87</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
@@ -6109,20 +8419,23 @@
       <c r="D11" s="7">
         <v>7.51</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="32">
         <v>158211.6</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="32">
         <v>1187.3800000000001</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="26">
+        <v>0.1090422148595096</v>
+      </c>
+      <c r="H11" s="32">
         <v>618.13</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="8">
         <v>5.79</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
@@ -6132,20 +8445,23 @@
       <c r="D12" s="7">
         <v>8.33</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="32">
         <v>130477.34</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="32">
         <v>1075.43</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="26">
+        <v>2.2225458521400981E-2</v>
+      </c>
+      <c r="H12" s="32">
         <v>571.32000000000005</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="8">
         <v>6.75</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
@@ -6155,20 +8471,23 @@
       <c r="D13" s="16">
         <v>12.56</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="35">
         <v>71647.62</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="35">
         <v>875.16</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="29">
+        <v>0.15720768326380394</v>
+      </c>
+      <c r="H13" s="35">
         <v>570.79999999999995</v>
       </c>
-      <c r="H13" s="17">
+      <c r="I13" s="17">
         <v>7.66</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
@@ -6178,20 +8497,23 @@
       <c r="D14" s="19">
         <v>8.15</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="36">
         <v>97581.19</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="36">
         <v>787.14</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="30">
+        <v>0.13789631295629601</v>
+      </c>
+      <c r="H14" s="36">
         <v>614.84</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="20">
         <v>7.7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
@@ -6201,20 +8523,23 @@
       <c r="D15" s="4">
         <v>5.92</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="31">
         <v>3399215.41</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="31">
         <v>20029.93</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="25">
+        <v>4.0164338953416263E-2</v>
+      </c>
+      <c r="H15" s="31">
         <v>848.81</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>11.65</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
@@ -6224,20 +8549,23 @@
       <c r="D16" s="7">
         <v>5.84</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="32">
         <v>615746.43999999994</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="32">
         <v>3580.49</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="26">
+        <v>4.4487811884831849E-2</v>
+      </c>
+      <c r="H16" s="32">
         <v>834.07</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>19.59</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
@@ -6247,20 +8575,23 @@
       <c r="D17" s="7">
         <v>5.9</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="32">
         <v>438403.22</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="32">
         <v>2562.9299999999998</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="26">
+        <v>-4.1813584266171912E-2</v>
+      </c>
+      <c r="H17" s="32">
         <v>796.96</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="8">
         <v>17.989999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
@@ -6270,20 +8601,23 @@
       <c r="D18" s="7">
         <v>6.15</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="32">
         <v>336483.9</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="32">
         <v>2044.71</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="26">
+        <v>-1.5866745008607942E-2</v>
+      </c>
+      <c r="H18" s="32">
         <v>714.12</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>15.06</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
@@ -6293,20 +8627,23 @@
       <c r="D19" s="7">
         <v>6.63</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="32">
         <v>302179.42</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="32">
         <v>2016.87</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="26">
+        <v>0.18227953471882696</v>
+      </c>
+      <c r="H19" s="32">
         <v>1041.3900000000001</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>21.76</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -6316,20 +8653,23 @@
       <c r="D20" s="7">
         <v>5.16</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="32">
         <v>285392.83</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="32">
         <v>1423.51</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="26">
+        <v>2.7967628147624025E-2</v>
+      </c>
+      <c r="H20" s="32">
         <v>893.42</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="8">
         <v>10.35</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
@@ -6339,20 +8679,23 @@
       <c r="D21" s="7">
         <v>6.06</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="32">
         <v>217350.98</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="32">
         <v>1314.67</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="26">
+        <v>0.14614842458389748</v>
+      </c>
+      <c r="H21" s="32">
         <v>838.37</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>7.94</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
@@ -6362,20 +8705,23 @@
       <c r="D22" s="7">
         <v>6.25</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="32">
         <v>198753.08</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="32">
         <v>1248.26</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="26">
+        <v>6.415105668110771E-2</v>
+      </c>
+      <c r="H22" s="32">
         <v>854.8</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="8">
         <v>8.52</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>37</v>
       </c>
@@ -6385,20 +8731,23 @@
       <c r="D23" s="16">
         <v>5.7</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="35">
         <v>174319.01</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="35">
         <v>991.62</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="29">
+        <v>0.42855140983899009</v>
+      </c>
+      <c r="H23" s="35">
         <v>839.39</v>
       </c>
-      <c r="H23" s="17">
+      <c r="I23" s="17">
         <v>12.44</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>37</v>
       </c>
@@ -6408,20 +8757,23 @@
       <c r="D24" s="16">
         <v>5.76</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="35">
         <v>163518.19</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="35">
         <v>943.19</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="29">
+        <v>5.5859377117548764E-2</v>
+      </c>
+      <c r="H24" s="35">
         <v>914.04</v>
       </c>
-      <c r="H24" s="17">
+      <c r="I24" s="17">
         <v>8.65</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>37</v>
       </c>
@@ -6431,20 +8783,23 @@
       <c r="D25" s="16">
         <v>5.15</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="35">
         <v>164685.4</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="35">
         <v>827.65</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="29">
+        <v>-6.1173632097056334E-2</v>
+      </c>
+      <c r="H25" s="35">
         <v>875.6</v>
       </c>
-      <c r="H25" s="17">
+      <c r="I25" s="17">
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>37</v>
       </c>
@@ -6454,26 +8809,30 @@
       <c r="D26" s="19">
         <v>5.36</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="36">
         <v>141289.22</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="36">
         <v>755.21</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="30">
+        <v>0.24603197154484968</v>
+      </c>
+      <c r="H26" s="36">
         <v>869.68</v>
       </c>
-      <c r="H26" s="20">
+      <c r="I26" s="20">
         <v>12.55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:I27">
     <sortCondition ref="B3:B27"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>